--- a/data/IEEE_9/ieee4/ieee4_2030.xlsx
+++ b/data/IEEE_9/ieee4/ieee4_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\ieee4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E59484E-FE16-4A56-800C-5947552C94B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7BB81F-D9AE-482C-B1B3-01A7EBBB7D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12570" yWindow="5445" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22995" yWindow="5535" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -3900,8 +3900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="B7" s="4">
         <f>SUM('RES installed'!$C$2:$C$5)</f>
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -6813,7 +6813,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:Y3"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6909,7 +6909,7 @@
       </c>
       <c r="D2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>0</v>
+        <v>3.9201792081923741E-4</v>
       </c>
       <c r="E2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -6929,55 +6929,55 @@
       </c>
       <c r="I2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>0</v>
+        <v>0.23837889732102033</v>
       </c>
       <c r="J2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>0</v>
+        <v>4.722559888452043</v>
       </c>
       <c r="K2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>0</v>
+        <v>12.322523315351559</v>
       </c>
       <c r="L2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>0</v>
+        <v>15.377902989850961</v>
       </c>
       <c r="M2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>0</v>
+        <v>17.080284813020018</v>
       </c>
       <c r="N2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>0</v>
+        <v>17.397035293041966</v>
       </c>
       <c r="O2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>0</v>
+        <v>17.077580689402939</v>
       </c>
       <c r="P2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>0</v>
+        <v>14.581834598153057</v>
       </c>
       <c r="Q2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>0</v>
+        <v>9.6360805065374411</v>
       </c>
       <c r="R2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>0</v>
+        <v>2.3542076209198135</v>
       </c>
       <c r="S2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>0</v>
+        <v>1.8400841181311148E-2</v>
       </c>
       <c r="T2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>0</v>
+        <v>1.5840724147389595E-3</v>
       </c>
       <c r="U2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>0</v>
+        <v>1.2120554082472343E-3</v>
       </c>
       <c r="V2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -7300,7 +7300,7 @@
       </c>
       <c r="C2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>0</v>
+        <v>6.8135245901639334E-4</v>
       </c>
       <c r="D2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -7324,51 +7324,51 @@
       </c>
       <c r="I2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>0</v>
+        <v>0.19100102459016391</v>
       </c>
       <c r="J2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>0</v>
+        <v>3.7593442622950812</v>
       </c>
       <c r="K2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>0</v>
+        <v>8.9429303278688526</v>
       </c>
       <c r="L2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>0</v>
+        <v>12.034520491803278</v>
       </c>
       <c r="M2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>0</v>
+        <v>14.75990163934426</v>
       </c>
       <c r="N2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>0</v>
+        <v>17.528545081967213</v>
       </c>
       <c r="O2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>0</v>
+        <v>14.62795594262295</v>
       </c>
       <c r="P2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>0</v>
+        <v>10.748621926229509</v>
       </c>
       <c r="Q2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>0</v>
+        <v>5.1562459016393438</v>
       </c>
       <c r="R2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>0</v>
+        <v>1.0772182377049178</v>
       </c>
       <c r="S2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>0</v>
+        <v>6.885245901639343E-3</v>
       </c>
       <c r="T2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>0</v>
+        <v>3.0122950819672129E-3</v>
       </c>
       <c r="U2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -7719,47 +7719,47 @@
       </c>
       <c r="I2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>0</v>
+        <v>0.20651417362692986</v>
       </c>
       <c r="J2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>0</v>
+        <v>4.509455675778284</v>
       </c>
       <c r="K2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>0</v>
+        <v>10.498865002531003</v>
       </c>
       <c r="L2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>0</v>
+        <v>15.14042331055429</v>
       </c>
       <c r="M2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>0</v>
+        <v>15.586200487218422</v>
       </c>
       <c r="N2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>0</v>
+        <v>14.799342729688684</v>
       </c>
       <c r="O2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>0</v>
+        <v>11.586884649455833</v>
       </c>
       <c r="P2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>0</v>
+        <v>8.9255315110098703</v>
       </c>
       <c r="Q2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>0</v>
+        <v>3.7872374082510754</v>
       </c>
       <c r="R2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>0</v>
+        <v>0.66862424069855719</v>
       </c>
       <c r="S2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>0</v>
+        <v>1.0851683118197925E-3</v>
       </c>
       <c r="T2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -8966,8 +8966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303073B7-556E-4714-A27A-3E87EB1A31BB}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8991,7 +8991,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="5">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -15316,7 +15316,7 @@
       </c>
       <c r="D2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>0</v>
+        <v>4.9394258023223914E-4</v>
       </c>
       <c r="E2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -15336,55 +15336,55 @@
       </c>
       <c r="I2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>0</v>
+        <v>0.28843846575843463</v>
       </c>
       <c r="J2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>0</v>
+        <v>5.9976510583340943</v>
       </c>
       <c r="K2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>0</v>
+        <v>15.896055076803508</v>
       </c>
       <c r="L2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>0</v>
+        <v>19.991273886806251</v>
       </c>
       <c r="M2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>0</v>
+        <v>20.667144623754222</v>
       </c>
       <c r="N2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>0</v>
+        <v>22.616145880954559</v>
       </c>
       <c r="O2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>0</v>
+        <v>22.030079089329792</v>
       </c>
       <c r="P2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>0</v>
+        <v>18.518929939654381</v>
       </c>
       <c r="Q2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>0</v>
+        <v>11.852379023041053</v>
       </c>
       <c r="R2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>0</v>
+        <v>2.9663016023589646</v>
       </c>
       <c r="S2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>0</v>
+        <v>2.3185059888452045E-2</v>
       </c>
       <c r="T2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>0</v>
+        <v>1.96424979427631E-3</v>
       </c>
       <c r="U2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>0</v>
+        <v>1.4665870439791533E-3</v>
       </c>
       <c r="V2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -15766,7 +15766,7 @@
       </c>
       <c r="C2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>0</v>
+        <v>8.6531762295081961E-4</v>
       </c>
       <c r="D2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -15790,51 +15790,51 @@
       </c>
       <c r="I2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>0</v>
+        <v>0.24830133196721307</v>
       </c>
       <c r="J2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>0</v>
+        <v>4.8495540983606551</v>
       </c>
       <c r="K2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>0</v>
+        <v>11.53638012295082</v>
       </c>
       <c r="L2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>0</v>
+        <v>15.283841024590163</v>
       </c>
       <c r="M2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>0</v>
+        <v>19.18787213114754</v>
       </c>
       <c r="N2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>0</v>
+        <v>22.787108606557375</v>
       </c>
       <c r="O2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>0</v>
+        <v>19.016342725409835</v>
       </c>
       <c r="P2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>0</v>
+        <v>13.113318749999999</v>
       </c>
       <c r="Q2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>0</v>
+        <v>6.5484322950819669</v>
       </c>
       <c r="R2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>0</v>
+        <v>1.3788393442622948</v>
       </c>
       <c r="S2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>0</v>
+        <v>8.331147540983604E-3</v>
       </c>
       <c r="T2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>0</v>
+        <v>3.6749999999999999E-3</v>
       </c>
       <c r="U2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -16185,47 +16185,47 @@
       </c>
       <c r="I2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>0</v>
+        <v>0.256077575297393</v>
       </c>
       <c r="J2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>0</v>
+        <v>5.5466304812072886</v>
       </c>
       <c r="K2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>0</v>
+        <v>13.018592603138442</v>
       </c>
       <c r="L2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>0</v>
+        <v>19.228337604403951</v>
       </c>
       <c r="M2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>0</v>
+        <v>20.106198628511763</v>
       </c>
       <c r="N2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>0</v>
+        <v>17.75921127562642</v>
       </c>
       <c r="O2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>0</v>
+        <v>14.251868118830673</v>
       </c>
       <c r="P2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>0</v>
+        <v>11.424680334092633</v>
       </c>
       <c r="Q2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>0</v>
+        <v>4.8855362566438876</v>
       </c>
       <c r="R2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>0</v>
+        <v>0.86252527050113881</v>
       </c>
       <c r="S2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>0</v>
+        <v>1.4107188053657303E-3</v>
       </c>
       <c r="T2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>

--- a/data/IEEE_9/ieee4/ieee4_2030.xlsx
+++ b/data/IEEE_9/ieee4/ieee4_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\ieee4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7BB81F-D9AE-482C-B1B3-01A7EBBB7D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005AFE02-B21C-4CC9-B070-B8BE02B34389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22995" yWindow="5535" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="7455" windowWidth="21600" windowHeight="12660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -3629,7 +3629,230 @@
       <sheetData sheetId="25"/>
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
+      <sheetData sheetId="28">
+        <row r="2">
+          <cell r="B2">
+            <v>4.9164000000000003</v>
+          </cell>
+          <cell r="C2">
+            <v>5.0804</v>
+          </cell>
+          <cell r="D2">
+            <v>4.5491999999999999</v>
+          </cell>
+          <cell r="E2">
+            <v>4.3120000000000003</v>
+          </cell>
+          <cell r="F2">
+            <v>3.5327999999999999</v>
+          </cell>
+          <cell r="G2">
+            <v>2.9984000000000002</v>
+          </cell>
+          <cell r="H2">
+            <v>3.6667999999999998</v>
+          </cell>
+          <cell r="I2">
+            <v>0.63680000000000003</v>
+          </cell>
+          <cell r="J2">
+            <v>0.56000000000000005</v>
+          </cell>
+          <cell r="K2">
+            <v>0.81640000000000001</v>
+          </cell>
+          <cell r="L2">
+            <v>0.48080000000000001</v>
+          </cell>
+          <cell r="M2">
+            <v>0.6008</v>
+          </cell>
+          <cell r="N2">
+            <v>0.95720000000000005</v>
+          </cell>
+          <cell r="O2">
+            <v>1.7636000000000001</v>
+          </cell>
+          <cell r="P2">
+            <v>1.8815999999999999</v>
+          </cell>
+          <cell r="Q2">
+            <v>1.8504</v>
+          </cell>
+          <cell r="R2">
+            <v>1.038</v>
+          </cell>
+          <cell r="S2">
+            <v>2.1143999999999998</v>
+          </cell>
+          <cell r="T2">
+            <v>1.2407999999999999</v>
+          </cell>
+          <cell r="U2">
+            <v>0.87239999999999995</v>
+          </cell>
+          <cell r="V2">
+            <v>1.3248</v>
+          </cell>
+          <cell r="W2">
+            <v>0.81879999999999997</v>
+          </cell>
+          <cell r="X2">
+            <v>3.7372000000000001</v>
+          </cell>
+          <cell r="Y2">
+            <v>4.5052000000000003</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>-11.1</v>
+          </cell>
+          <cell r="C3">
+            <v>-11.8696</v>
+          </cell>
+          <cell r="D3">
+            <v>-13.349600000000001</v>
+          </cell>
+          <cell r="E3">
+            <v>-14.400399999999999</v>
+          </cell>
+          <cell r="F3">
+            <v>-15.391999999999999</v>
+          </cell>
+          <cell r="G3">
+            <v>-16.797999999999998</v>
+          </cell>
+          <cell r="H3">
+            <v>-16.028400000000001</v>
+          </cell>
+          <cell r="I3">
+            <v>-17.979759999999999</v>
+          </cell>
+          <cell r="J3">
+            <v>-16.307359999999999</v>
+          </cell>
+          <cell r="K3">
+            <v>-23.952839999999998</v>
+          </cell>
+          <cell r="L3">
+            <v>-23.707360000000001</v>
+          </cell>
+          <cell r="M3">
+            <v>-21.672160000000002</v>
+          </cell>
+          <cell r="N3">
+            <v>-20.774560000000001</v>
+          </cell>
+          <cell r="O3">
+            <v>-20.057480000000002</v>
+          </cell>
+          <cell r="P3">
+            <v>-18.90568</v>
+          </cell>
+          <cell r="Q3">
+            <v>-17.204239999999999</v>
+          </cell>
+          <cell r="R3">
+            <v>-16.086960000000001</v>
+          </cell>
+          <cell r="S3">
+            <v>-14.396240000000001</v>
+          </cell>
+          <cell r="T3">
+            <v>-9.1377199999999998</v>
+          </cell>
+          <cell r="U3">
+            <v>-10.22648</v>
+          </cell>
+          <cell r="V3">
+            <v>-10.809839999999999</v>
+          </cell>
+          <cell r="W3">
+            <v>-11.605399999999999</v>
+          </cell>
+          <cell r="X3">
+            <v>-9.2203999999999997</v>
+          </cell>
+          <cell r="Y3">
+            <v>-9.7975999999999992</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>10.69356</v>
+          </cell>
+          <cell r="C4">
+            <v>11.44032</v>
+          </cell>
+          <cell r="D4">
+            <v>12.82724</v>
+          </cell>
+          <cell r="E4">
+            <v>13.802440000000001</v>
+          </cell>
+          <cell r="F4">
+            <v>14.6914</v>
+          </cell>
+          <cell r="G4">
+            <v>16.042000000000002</v>
+          </cell>
+          <cell r="H4">
+            <v>15.294</v>
+          </cell>
+          <cell r="I4">
+            <v>17.259160000000001</v>
+          </cell>
+          <cell r="J4">
+            <v>15.80916</v>
+          </cell>
+          <cell r="K4">
+            <v>18.039439999999999</v>
+          </cell>
+          <cell r="L4">
+            <v>18.181480000000001</v>
+          </cell>
+          <cell r="M4">
+            <v>17.019639999999999</v>
+          </cell>
+          <cell r="N4">
+            <v>16.446000000000002</v>
+          </cell>
+          <cell r="O4">
+            <v>16.02328</v>
+          </cell>
+          <cell r="P4">
+            <v>15.01632</v>
+          </cell>
+          <cell r="Q4">
+            <v>13.671480000000001</v>
+          </cell>
+          <cell r="R4">
+            <v>12.736039999999999</v>
+          </cell>
+          <cell r="S4">
+            <v>11.38288</v>
+          </cell>
+          <cell r="T4">
+            <v>8.9093599999999995</v>
+          </cell>
+          <cell r="U4">
+            <v>9.9721600000000006</v>
+          </cell>
+          <cell r="V4">
+            <v>10.59656</v>
+          </cell>
+          <cell r="W4">
+            <v>11.41456</v>
+          </cell>
+          <cell r="X4">
+            <v>8.8819999999999997</v>
+          </cell>
+          <cell r="Y4">
+            <v>9.4448000000000008</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5489,99 +5712,99 @@
       </c>
       <c r="B2" s="4">
         <f>('FL Characterization'!B$4-'FL Characterization'!B$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.25676266666666658</v>
+        <v>4.1823932809038054</v>
       </c>
       <c r="C2" s="4">
         <f>('FL Characterization'!C$4-'FL Characterization'!C$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.28266311111111103</v>
+        <v>4.6042842287708377</v>
       </c>
       <c r="D2" s="4">
         <f>('FL Characterization'!D$4-'FL Characterization'!D$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.36791288888888884</v>
+        <v>5.9929132783327708</v>
       </c>
       <c r="E2" s="4">
         <f>('FL Characterization'!E$4-'FL Characterization'!E$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.4217973333333333</v>
+        <v>6.8706340985572005</v>
       </c>
       <c r="F2" s="4">
         <f>('FL Characterization'!F$4-'FL Characterization'!F$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.4959377777777777</v>
+        <v>8.0783038143816714</v>
       </c>
       <c r="G2" s="4">
         <f>('FL Characterization'!G$4-'FL Characterization'!G$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.57971555555555554</v>
+        <v>9.4429555350374397</v>
       </c>
       <c r="H2" s="4">
         <f>('FL Characterization'!H$4-'FL Characterization'!H$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.51676444444444447</v>
+        <v>8.4175482686518528</v>
       </c>
       <c r="I2" s="4">
         <f>('FL Characterization'!I$4-'FL Characterization'!I$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.73877155555555563</v>
+        <v>12.033810172604566</v>
       </c>
       <c r="J2" s="4">
         <f>('FL Characterization'!J$4-'FL Characterization'!J$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.67774044444444437</v>
+        <v>11.039677683053107</v>
       </c>
       <c r="K2" s="4">
         <f>('FL Characterization'!K$4-'FL Characterization'!K$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.7654684444444444</v>
+        <v>12.468674361232418</v>
       </c>
       <c r="L2" s="4">
         <f>('FL Characterization'!L$4-'FL Characterization'!L$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.78669688888888889</v>
+        <v>12.814463352136411</v>
       </c>
       <c r="M2" s="4">
         <f>('FL Characterization'!M$4-'FL Characterization'!M$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.72972622222222217</v>
+        <v>11.886471223963788</v>
       </c>
       <c r="N2" s="4">
         <f>('FL Characterization'!N$4-'FL Characterization'!N$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.68839111111111106</v>
+        <v>11.213165820102416</v>
       </c>
       <c r="O2" s="4">
         <f>('FL Characterization'!O$4-'FL Characterization'!O$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.63376355555555552</v>
+        <v>10.323340502918111</v>
       </c>
       <c r="P2" s="4">
         <f>('FL Characterization'!P$4-'FL Characterization'!P$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.58376533333333325</v>
+        <v>9.5089221476560866</v>
       </c>
       <c r="Q2" s="4">
         <f>('FL Characterization'!Q$4-'FL Characterization'!Q$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.52538133333333326</v>
+        <v>8.5579083087583463</v>
       </c>
       <c r="R2" s="4">
         <f>('FL Characterization'!R$4-'FL Characterization'!R$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.51991288888888887</v>
+        <v>8.4688331110344812</v>
       </c>
       <c r="S2" s="4">
         <f>('FL Characterization'!S$4-'FL Characterization'!S$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.41193244444444443</v>
+        <v>6.7099454535085252</v>
       </c>
       <c r="T2" s="4">
         <f>('FL Characterization'!T$4-'FL Characterization'!T$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.34082488888888884</v>
+        <v>5.5516783018312958</v>
       </c>
       <c r="U2" s="4">
         <f>('FL Characterization'!U$4-'FL Characterization'!U$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.40443377777777778</v>
+        <v>6.5878000750952399</v>
       </c>
       <c r="V2" s="4">
         <f>('FL Characterization'!V$4-'FL Characterization'!V$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.41207822222222218</v>
+        <v>6.712320019897783</v>
       </c>
       <c r="W2" s="4">
         <f>('FL Characterization'!W$4-'FL Characterization'!W$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.47092266666666666</v>
+        <v>7.6708340136103743</v>
       </c>
       <c r="X2" s="4">
         <f>('FL Characterization'!X$4-'FL Characterization'!X$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.22865777777777779</v>
+        <v>3.7245942559309246</v>
       </c>
       <c r="Y2" s="4">
         <f>('FL Characterization'!Y$4-'FL Characterization'!Y$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.2195377777777778</v>
+        <v>3.5760390659688217</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -5590,99 +5813,99 @@
       </c>
       <c r="B3" s="4">
         <f>('FL Characterization'!B$4-'FL Characterization'!B$2)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.19257199999999997</v>
+        <v>3.1367949606778542</v>
       </c>
       <c r="C3" s="4">
         <f>('FL Characterization'!C$4-'FL Characterization'!C$2)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.21199733333333329</v>
+        <v>3.453213171578128</v>
       </c>
       <c r="D3" s="4">
         <f>('FL Characterization'!D$4-'FL Characterization'!D$2)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.27593466666666666</v>
+        <v>4.4946849587495779</v>
       </c>
       <c r="E3" s="4">
         <f>('FL Characterization'!E$4-'FL Characterization'!E$2)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.31634799999999996</v>
+        <v>5.1529755739179004</v>
       </c>
       <c r="F3" s="4">
         <f>('FL Characterization'!F$4-'FL Characterization'!F$2)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.37195333333333325</v>
+        <v>6.0587278607862531</v>
       </c>
       <c r="G3" s="4">
         <f>('FL Characterization'!G$4-'FL Characterization'!G$2)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.43478666666666665</v>
+        <v>7.0822166512780793</v>
       </c>
       <c r="H3" s="4">
         <f>('FL Characterization'!H$4-'FL Characterization'!H$2)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.38757333333333338</v>
+        <v>6.3131612014888896</v>
       </c>
       <c r="I3" s="4">
         <f>('FL Characterization'!I$4-'FL Characterization'!I$2)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.55407866666666672</v>
+        <v>9.0253576294534241</v>
       </c>
       <c r="J3" s="4">
         <f>('FL Characterization'!J$4-'FL Characterization'!J$2)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.50830533333333328</v>
+        <v>8.27975826228983</v>
       </c>
       <c r="K3" s="4">
         <f>('FL Characterization'!K$4-'FL Characterization'!K$2)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.57410133333333335</v>
+        <v>9.3515057709243141</v>
       </c>
       <c r="L3" s="4">
         <f>('FL Characterization'!L$4-'FL Characterization'!L$2)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.5900226666666667</v>
+        <v>9.6108475141023071</v>
       </c>
       <c r="M3" s="4">
         <f>('FL Characterization'!M$4-'FL Characterization'!M$2)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.5472946666666666</v>
+        <v>8.9148534179728411</v>
       </c>
       <c r="N3" s="4">
         <f>('FL Characterization'!N$4-'FL Characterization'!N$2)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.51629333333333327</v>
+        <v>8.4098743650768117</v>
       </c>
       <c r="O3" s="4">
         <f>('FL Characterization'!O$4-'FL Characterization'!O$2)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.47532266666666662</v>
+        <v>7.742505377188583</v>
       </c>
       <c r="P3" s="4">
         <f>('FL Characterization'!P$4-'FL Characterization'!P$2)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.43782399999999999</v>
+        <v>7.1316916107420649</v>
       </c>
       <c r="Q3" s="4">
         <f>('FL Characterization'!Q$4-'FL Characterization'!Q$2)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.39403599999999994</v>
+        <v>6.4184312315687588</v>
       </c>
       <c r="R3" s="4">
         <f>('FL Characterization'!R$4-'FL Characterization'!R$2)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.38993466666666665</v>
+        <v>6.3516248332758609</v>
       </c>
       <c r="S3" s="4">
         <f>('FL Characterization'!S$4-'FL Characterization'!S$2)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.3089493333333333</v>
+        <v>5.0324590901313941</v>
       </c>
       <c r="T3" s="4">
         <f>('FL Characterization'!T$4-'FL Characterization'!T$2)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.25561866666666666</v>
+        <v>4.1637587263734712</v>
       </c>
       <c r="U3" s="4">
         <f>('FL Characterization'!U$4-'FL Characterization'!U$2)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.30332533333333334</v>
+        <v>4.9408500563214304</v>
       </c>
       <c r="V3" s="4">
         <f>('FL Characterization'!V$4-'FL Characterization'!V$2)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.30905866666666665</v>
+        <v>5.0342400149233377</v>
       </c>
       <c r="W3" s="4">
         <f>('FL Characterization'!W$4-'FL Characterization'!W$2)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.35319200000000001</v>
+        <v>5.7531255102077807</v>
       </c>
       <c r="X3" s="4">
         <f>('FL Characterization'!X$4-'FL Characterization'!X$2)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.17149333333333333</v>
+        <v>2.7934456919481936</v>
       </c>
       <c r="Y3" s="4">
         <f>('FL Characterization'!Y$4-'FL Characterization'!Y$2)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.16465333333333335</v>
+        <v>2.6820292994766164</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -5691,99 +5914,99 @@
       </c>
       <c r="B4" s="4">
         <f>('FL Characterization'!B$4-'FL Characterization'!B$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.12838133333333329</v>
+        <v>2.0911966404519027</v>
       </c>
       <c r="C4" s="4">
         <f>('FL Characterization'!C$4-'FL Characterization'!C$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.14133155555555552</v>
+        <v>2.3021421143854188</v>
       </c>
       <c r="D4" s="4">
         <f>('FL Characterization'!D$4-'FL Characterization'!D$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.18395644444444442</v>
+        <v>2.9964566391663854</v>
       </c>
       <c r="E4" s="4">
         <f>('FL Characterization'!E$4-'FL Characterization'!E$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.21089866666666665</v>
+        <v>3.4353170492786003</v>
       </c>
       <c r="F4" s="4">
         <f>('FL Characterization'!F$4-'FL Characterization'!F$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.24796888888888885</v>
+        <v>4.0391519071908357</v>
       </c>
       <c r="G4" s="4">
         <f>('FL Characterization'!G$4-'FL Characterization'!G$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.28985777777777777</v>
+        <v>4.7214777675187198</v>
       </c>
       <c r="H4" s="4">
         <f>('FL Characterization'!H$4-'FL Characterization'!H$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.25838222222222224</v>
+        <v>4.2087741343259264</v>
       </c>
       <c r="I4" s="4">
         <f>('FL Characterization'!I$4-'FL Characterization'!I$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.36938577777777781</v>
+        <v>6.016905086302283</v>
       </c>
       <c r="J4" s="4">
         <f>('FL Characterization'!J$4-'FL Characterization'!J$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.33887022222222218</v>
+        <v>5.5198388415265534</v>
       </c>
       <c r="K4" s="4">
         <f>('FL Characterization'!K$4-'FL Characterization'!K$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.3827342222222222</v>
+        <v>6.2343371806162091</v>
       </c>
       <c r="L4" s="4">
         <f>('FL Characterization'!L$4-'FL Characterization'!L$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.39334844444444445</v>
+        <v>6.4072316760682053</v>
       </c>
       <c r="M4" s="4">
         <f>('FL Characterization'!M$4-'FL Characterization'!M$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.36486311111111108</v>
+        <v>5.9432356119818941</v>
       </c>
       <c r="N4" s="4">
         <f>('FL Characterization'!N$4-'FL Characterization'!N$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.34419555555555553</v>
+        <v>5.6065829100512081</v>
       </c>
       <c r="O4" s="4">
         <f>('FL Characterization'!O$4-'FL Characterization'!O$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.31688177777777776</v>
+        <v>5.1616702514590553</v>
       </c>
       <c r="P4" s="4">
         <f>('FL Characterization'!P$4-'FL Characterization'!P$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.29188266666666662</v>
+        <v>4.7544610738280433</v>
       </c>
       <c r="Q4" s="4">
         <f>('FL Characterization'!Q$4-'FL Characterization'!Q$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.26269066666666663</v>
+        <v>4.2789541543791731</v>
       </c>
       <c r="R4" s="4">
         <f>('FL Characterization'!R$4-'FL Characterization'!R$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.25995644444444443</v>
+        <v>4.2344165555172406</v>
       </c>
       <c r="S4" s="4">
         <f>('FL Characterization'!S$4-'FL Characterization'!S$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.20596622222222222</v>
+        <v>3.3549727267542626</v>
       </c>
       <c r="T4" s="4">
         <f>('FL Characterization'!T$4-'FL Characterization'!T$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.17041244444444442</v>
+        <v>2.7758391509156479</v>
       </c>
       <c r="U4" s="4">
         <f>('FL Characterization'!U$4-'FL Characterization'!U$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.20221688888888889</v>
+        <v>3.29390003754762</v>
       </c>
       <c r="V4" s="4">
         <f>('FL Characterization'!V$4-'FL Characterization'!V$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.20603911111111109</v>
+        <v>3.3561600099488915</v>
       </c>
       <c r="W4" s="4">
         <f>('FL Characterization'!W$4-'FL Characterization'!W$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.23546133333333333</v>
+        <v>3.8354170068051872</v>
       </c>
       <c r="X4" s="4">
         <f>('FL Characterization'!X$4-'FL Characterization'!X$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.1143288888888889</v>
+        <v>1.8622971279654623</v>
       </c>
       <c r="Y4" s="4">
         <f>('FL Characterization'!Y$4-'FL Characterization'!Y$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.1097688888888889</v>
+        <v>1.7880195329844109</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -6194,99 +6417,99 @@
       </c>
       <c r="B2" s="4">
         <f>('FL Characterization'!B$2-'FL Characterization'!B$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.71183999999999992</v>
+        <v>11.59512351125254</v>
       </c>
       <c r="C2" s="4">
         <f>('FL Characterization'!C$2-'FL Characterization'!C$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.7533333333333333</v>
+        <v>12.271006188390061</v>
       </c>
       <c r="D2" s="4">
         <f>('FL Characterization'!D$2-'FL Characterization'!D$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.79550222222222222</v>
+        <v>12.957892953672919</v>
       </c>
       <c r="E2" s="4">
         <f>('FL Characterization'!E$2-'FL Characterization'!E$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.83166222222222219</v>
+        <v>13.546901250715642</v>
       </c>
       <c r="F2" s="4">
         <f>('FL Characterization'!F$2-'FL Characterization'!F$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.8411022222222222</v>
+        <v>13.700668903483432</v>
       </c>
       <c r="G2" s="4">
         <f>('FL Characterization'!G$2-'FL Characterization'!G$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.87983999999999984</v>
+        <v>14.331666484238641</v>
       </c>
       <c r="H2" s="4">
         <f>('FL Characterization'!H$2-'FL Characterization'!H$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.87534222222222224</v>
+        <v>14.258402423692031</v>
       </c>
       <c r="I2" s="4">
         <f>('FL Characterization'!I$2-'FL Characterization'!I$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.82740266666666651</v>
+        <v>13.477517579146596</v>
       </c>
       <c r="J2" s="4">
         <f>('FL Characterization'!J$2-'FL Characterization'!J$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.74966044444444446</v>
+        <v>12.211178698631443</v>
       </c>
       <c r="K2" s="4">
         <f>('FL Characterization'!K$2-'FL Characterization'!K$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>1.1008551111111111</v>
+        <v>17.931769753493722</v>
       </c>
       <c r="L2" s="4">
         <f>('FL Characterization'!L$2-'FL Characterization'!L$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>1.0750293333333334</v>
+        <v>17.511095046948022</v>
       </c>
       <c r="M2" s="4">
         <f>('FL Characterization'!M$2-'FL Characterization'!M$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.98990933333333342</v>
+        <v>16.124579940635059</v>
       </c>
       <c r="N2" s="4">
         <f>('FL Characterization'!N$2-'FL Characterization'!N$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.96585600000000005</v>
+        <v>15.732776486407525</v>
       </c>
       <c r="O2" s="4">
         <f>('FL Characterization'!O$2-'FL Characterization'!O$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.96982577777777768</v>
+        <v>15.797439983324752</v>
       </c>
       <c r="P2" s="4">
         <f>('FL Characterization'!P$2-'FL Characterization'!P$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.92387911111111098</v>
+        <v>15.049017198808077</v>
       </c>
       <c r="Q2" s="4">
         <f>('FL Characterization'!Q$2-'FL Characterization'!Q$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.8468728888888889</v>
+        <v>13.794666982746003</v>
       </c>
       <c r="R2" s="4">
         <f>('FL Characterization'!R$2-'FL Characterization'!R$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.76110933333333342</v>
+        <v>12.397669034568274</v>
       </c>
       <c r="S2" s="4">
         <f>('FL Characterization'!S$2-'FL Characterization'!S$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.73380622222222225</v>
+        <v>11.95293012473631</v>
       </c>
       <c r="T2" s="4">
         <f>('FL Characterization'!T$2-'FL Characterization'!T$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.46126755555555554</v>
+        <v>7.5135624275120936</v>
       </c>
       <c r="U2" s="4">
         <f>('FL Characterization'!U$2-'FL Characterization'!U$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.49328355555555553</v>
+        <v>8.035069331221159</v>
       </c>
       <c r="V2" s="4">
         <f>('FL Characterization'!V$2-'FL Characterization'!V$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.5393173333333332</v>
+        <v>8.7849110639460495</v>
       </c>
       <c r="W2" s="4">
         <f>('FL Characterization'!W$2-'FL Characterization'!W$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.5521866666666666</v>
+        <v>8.9945389431147937</v>
       </c>
       <c r="X2" s="4">
         <f>('FL Characterization'!X$2-'FL Characterization'!X$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.57589333333333326</v>
+        <v>9.3806955626361663</v>
       </c>
       <c r="Y2" s="4">
         <f>('FL Characterization'!Y$2-'FL Characterization'!Y$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.63567999999999991</v>
+        <v>10.35455736349884</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -6295,99 +6518,99 @@
       </c>
       <c r="B3" s="4">
         <f>('FL Characterization'!B$2-'FL Characterization'!B$3)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.53387999999999991</v>
+        <v>8.6963426334394036</v>
       </c>
       <c r="C3" s="4">
         <f>('FL Characterization'!C$2-'FL Characterization'!C$3)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.56499999999999995</v>
+        <v>9.2032546412925456</v>
       </c>
       <c r="D3" s="4">
         <f>('FL Characterization'!D$2-'FL Characterization'!D$3)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.59662666666666664</v>
+        <v>9.7184197152546901</v>
       </c>
       <c r="E3" s="4">
         <f>('FL Characterization'!E$2-'FL Characterization'!E$3)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.62374666666666667</v>
+        <v>10.160175938036732</v>
       </c>
       <c r="F3" s="4">
         <f>('FL Characterization'!F$2-'FL Characterization'!F$3)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.63082666666666665</v>
+        <v>10.275501677612574</v>
       </c>
       <c r="G3" s="4">
         <f>('FL Characterization'!G$2-'FL Characterization'!G$3)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.65987999999999991</v>
+        <v>10.748749863178981</v>
       </c>
       <c r="H3" s="4">
         <f>('FL Characterization'!H$2-'FL Characterization'!H$3)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.65650666666666668</v>
+        <v>10.693801817769023</v>
       </c>
       <c r="I3" s="4">
         <f>('FL Characterization'!I$2-'FL Characterization'!I$3)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.62055199999999988</v>
+        <v>10.108138184359948</v>
       </c>
       <c r="J3" s="4">
         <f>('FL Characterization'!J$2-'FL Characterization'!J$3)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.56224533333333326</v>
+        <v>9.1583840239735821</v>
       </c>
       <c r="K3" s="4">
         <f>('FL Characterization'!K$2-'FL Characterization'!K$3)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.82564133333333323</v>
+        <v>13.448827315120292</v>
       </c>
       <c r="L3" s="4">
         <f>('FL Characterization'!L$2-'FL Characterization'!L$3)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.80627199999999999</v>
+        <v>13.133321285211014</v>
       </c>
       <c r="M3" s="4">
         <f>('FL Characterization'!M$2-'FL Characterization'!M$3)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.74243200000000009</v>
+        <v>12.093434955476294</v>
       </c>
       <c r="N3" s="4">
         <f>('FL Characterization'!N$2-'FL Characterization'!N$3)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.72439200000000004</v>
+        <v>11.799582364805644</v>
       </c>
       <c r="O3" s="4">
         <f>('FL Characterization'!O$2-'FL Characterization'!O$3)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.72736933333333331</v>
+        <v>11.848079987493565</v>
       </c>
       <c r="P3" s="4">
         <f>('FL Characterization'!P$2-'FL Characterization'!P$3)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.69290933333333327</v>
+        <v>11.286762899106058</v>
       </c>
       <c r="Q3" s="4">
         <f>('FL Characterization'!Q$2-'FL Characterization'!Q$3)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.63515466666666665</v>
+        <v>10.346000237059503</v>
       </c>
       <c r="R3" s="4">
         <f>('FL Characterization'!R$2-'FL Characterization'!R$3)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.57083200000000001</v>
+        <v>9.2982517759262056</v>
       </c>
       <c r="S3" s="4">
         <f>('FL Characterization'!S$2-'FL Characterization'!S$3)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.55035466666666666</v>
+        <v>8.9646975935522324</v>
       </c>
       <c r="T3" s="4">
         <f>('FL Characterization'!T$2-'FL Characterization'!T$3)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.34595066666666663</v>
+        <v>5.6351718206340706</v>
       </c>
       <c r="U3" s="4">
         <f>('FL Characterization'!U$2-'FL Characterization'!U$3)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.36996266666666666</v>
+        <v>6.0263019984158692</v>
       </c>
       <c r="V3" s="4">
         <f>('FL Characterization'!V$2-'FL Characterization'!V$3)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.40448799999999996</v>
+        <v>6.5886832979595376</v>
       </c>
       <c r="W3" s="4">
         <f>('FL Characterization'!W$2-'FL Characterization'!W$3)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.41413999999999995</v>
+        <v>6.7459042073360962</v>
       </c>
       <c r="X3" s="4">
         <f>('FL Characterization'!X$2-'FL Characterization'!X$3)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.43191999999999997</v>
+        <v>7.0355216719771256</v>
       </c>
       <c r="Y3" s="4">
         <f>('FL Characterization'!Y$2-'FL Characterization'!Y$3)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.47675999999999996</v>
+        <v>7.7659180226241293</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -6396,99 +6619,99 @@
       </c>
       <c r="B4" s="4">
         <f>('FL Characterization'!B$2-'FL Characterization'!B$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.35591999999999996</v>
+        <v>5.79756175562627</v>
       </c>
       <c r="C4" s="4">
         <f>('FL Characterization'!C$2-'FL Characterization'!C$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.37666666666666665</v>
+        <v>6.1355030941950304</v>
       </c>
       <c r="D4" s="4">
         <f>('FL Characterization'!D$2-'FL Characterization'!D$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.39775111111111111</v>
+        <v>6.4789464768364597</v>
       </c>
       <c r="E4" s="4">
         <f>('FL Characterization'!E$2-'FL Characterization'!E$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.4158311111111111</v>
+        <v>6.7734506253578211</v>
       </c>
       <c r="F4" s="4">
         <f>('FL Characterization'!F$2-'FL Characterization'!F$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.4205511111111111</v>
+        <v>6.8503344517417162</v>
       </c>
       <c r="G4" s="4">
         <f>('FL Characterization'!G$2-'FL Characterization'!G$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.43991999999999992</v>
+        <v>7.1658332421193203</v>
       </c>
       <c r="H4" s="4">
         <f>('FL Characterization'!H$2-'FL Characterization'!H$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.43767111111111112</v>
+        <v>7.1292012118460155</v>
       </c>
       <c r="I4" s="4">
         <f>('FL Characterization'!I$2-'FL Characterization'!I$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.41370133333333325</v>
+        <v>6.7387587895732981</v>
       </c>
       <c r="J4" s="4">
         <f>('FL Characterization'!J$2-'FL Characterization'!J$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.37483022222222223</v>
+        <v>6.1055893493157214</v>
       </c>
       <c r="K4" s="4">
         <f>('FL Characterization'!K$2-'FL Characterization'!K$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.55042755555555556</v>
+        <v>8.9658848767468609</v>
       </c>
       <c r="L4" s="4">
         <f>('FL Characterization'!L$2-'FL Characterization'!L$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.5375146666666667</v>
+        <v>8.7555475234740108</v>
       </c>
       <c r="M4" s="4">
         <f>('FL Characterization'!M$2-'FL Characterization'!M$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.49495466666666671</v>
+        <v>8.0622899703175293</v>
       </c>
       <c r="N4" s="4">
         <f>('FL Characterization'!N$2-'FL Characterization'!N$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.48292800000000002</v>
+        <v>7.8663882432037626</v>
       </c>
       <c r="O4" s="4">
         <f>('FL Characterization'!O$2-'FL Characterization'!O$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.48491288888888884</v>
+        <v>7.898719991662376</v>
       </c>
       <c r="P4" s="4">
         <f>('FL Characterization'!P$2-'FL Characterization'!P$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.46193955555555549</v>
+        <v>7.5245085994040384</v>
       </c>
       <c r="Q4" s="4">
         <f>('FL Characterization'!Q$2-'FL Characterization'!Q$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.42343644444444445</v>
+        <v>6.8973334913730016</v>
       </c>
       <c r="R4" s="4">
         <f>('FL Characterization'!R$2-'FL Characterization'!R$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.38055466666666671</v>
+        <v>6.198834517284137</v>
       </c>
       <c r="S4" s="4">
         <f>('FL Characterization'!S$2-'FL Characterization'!S$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.36690311111111112</v>
+        <v>5.9764650623681552</v>
       </c>
       <c r="T4" s="4">
         <f>('FL Characterization'!T$2-'FL Characterization'!T$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.23063377777777777</v>
+        <v>3.7567812137560468</v>
       </c>
       <c r="U4" s="4">
         <f>('FL Characterization'!U$2-'FL Characterization'!U$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.24664177777777777</v>
+        <v>4.0175346656105795</v>
       </c>
       <c r="V4" s="4">
         <f>('FL Characterization'!V$2-'FL Characterization'!V$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.2696586666666666</v>
+        <v>4.3924555319730247</v>
       </c>
       <c r="W4" s="4">
         <f>('FL Characterization'!W$2-'FL Characterization'!W$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.2760933333333333</v>
+        <v>4.4972694715573969</v>
       </c>
       <c r="X4" s="4">
         <f>('FL Characterization'!X$2-'FL Characterization'!X$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.28794666666666663</v>
+        <v>4.6903477813180832</v>
       </c>
       <c r="Y4" s="4">
         <f>('FL Characterization'!Y$2-'FL Characterization'!Y$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.31783999999999996</v>
+        <v>5.1772786817494199</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -8966,7 +9189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303073B7-556E-4714-A27A-3E87EB1A31BB}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -9666,99 +9889,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Pc, Summer, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>34.461792554414025</v>
+        <v>37.802529240231181</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Pc, Summer, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>34.135125917015799</v>
+        <v>37.587302033406957</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Pc, Summer, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>32.865606026209619</v>
+        <v>35.9568271089367</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Pc, Summer, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>32.264219411325584</v>
+        <v>35.194261024954173</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Pc, Summer, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>31.998388320477243</v>
+        <v>34.398956737134732</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Pc, Summer, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>32.449881612159331</v>
+        <v>34.487320567239102</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Pc, Summer, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>32.19701052581383</v>
+        <v>34.688633111354946</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Pc, Summer, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>39.203854344363791</v>
+        <v>39.636565499177955</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Pc, Summer, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>42.167507417658236</v>
+        <v>42.548032302545067</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Pc, Summer, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>41.626591910508175</v>
+        <v>42.181342831975329</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Pc, Summer, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>40.930920859059675</v>
+        <v>41.257628653083941</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Pc, Summer, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>41.437187481823663</v>
+        <v>41.845436322609395</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Pc, Summer, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>42.98151623675313</v>
+        <v>43.631941986420401</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Pc, Summer, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>42.208156307672823</v>
+        <v>43.40653789157713</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Pc, Summer, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>38.938067705839863</v>
+        <v>40.216631319059609</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Pc, Summer, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>40.131214267815537</v>
+        <v>41.388577208877308</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Pc, Summer, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>40.557507560623328</v>
+        <v>41.262837615109994</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Pc, Summer, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>39.269525455474898</v>
+        <v>40.706278699411889</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Pc, Summer, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>37.252654517723052</v>
+        <v>38.095788941236584</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Pc, Summer, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>36.761036781596523</v>
+        <v>37.353840191552365</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Pc, Summer, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>36.665543458394581</v>
+        <v>37.565756614641138</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Pc, Summer, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>36.232032383306169</v>
+        <v>36.788414125708556</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Pc, Summer, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>33.613028179763567</v>
+        <v>36.152488179404749</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Pc, Summer, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>32.542539387685686</v>
+        <v>35.603862086600238</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -9767,99 +9990,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Pc, Summer, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>22.872741104993736</v>
+        <v>25.378293619356608</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Pc, Summer, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>21.583728718444146</v>
+        <v>24.172860805737518</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Pc, Summer, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>20.715364388235372</v>
+        <v>23.033780200280685</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Pc, Summer, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>18.895187047065953</v>
+        <v>21.092718257287395</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Pc, Summer, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>18.166496513415218</v>
+        <v>19.966922825908334</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Pc, Summer, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>19.073311075236354</v>
+        <v>20.601390291546181</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Pc, Summer, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>20.316099896840253</v>
+        <v>22.184816835996095</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Pc, Summer, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>27.131316552595671</v>
+        <v>27.455849918706296</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Pc, Summer, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>29.60675931160965</v>
+        <v>29.892152975274772</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Pc, Summer, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>31.575517116003791</v>
+        <v>31.991580307104162</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Pc, Summer, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>28.790446763873717</v>
+        <v>29.035477609391918</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Pc, Summer, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>30.236866280314686</v>
+        <v>30.543052910903981</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Pc, Summer, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>30.285731396120866</v>
+        <v>30.773550708371321</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Pc, Summer, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>29.572909079997292</v>
+        <v>30.471695267925526</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Pc, Summer, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>25.434509443038607</v>
+        <v>26.393432152953419</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Pc, Summer, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>26.50603780141779</v>
+        <v>27.449060007214118</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Pc, Summer, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>28.032332665277298</v>
+        <v>28.561330206142291</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Pc, Summer, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>27.957257317858755</v>
+        <v>29.034822250811494</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Pc, Summer, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>29.111661023656477</v>
+        <v>29.744011841291627</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Pc, Summer, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>30.652755887515983</v>
+        <v>31.097358444982863</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Pc, Summer, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>32.073270288150773</v>
+        <v>32.748430155335697</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Pc, Summer, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>29.430460399245423</v>
+        <v>29.847746706047214</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Pc, Summer, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>25.385407428953403</v>
+        <v>27.290002428684289</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Pc, Summer, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>23.487781407032113</v>
+        <v>25.783773431218023</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -9868,99 +10091,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Summer, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>12.496294048354478</v>
+        <v>14.16666239126306</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Summer, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>11.754052170173996</v>
+        <v>13.480140228369576</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Summer, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>10.827649020606128</v>
+        <v>12.37325956196967</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Summer, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>11.257478264359557</v>
+        <v>12.722499071173852</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Summer, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>11.035931929990031</v>
+        <v>12.236216138318776</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Summer, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>11.24604635140618</v>
+        <v>12.264765828946066</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Summer, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>15.931568800224193</v>
+        <v>17.177380092994753</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Summer, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>20.304035006324966</v>
+        <v>20.520390583732048</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Summer, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>21.279084238333795</v>
+        <v>21.46934668077721</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Summer, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>19.961721753360216</v>
+        <v>20.239097214093793</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Summer, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>19.528043219796761</v>
+        <v>19.691397116808893</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Summer, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>20.995843734476679</v>
+        <v>21.199968154869545</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Summer, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>21.962760434994451</v>
+        <v>22.287973309828086</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Summer, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>20.408991398034775</v>
+        <v>21.008182189986929</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Summer, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>18.617934606325619</v>
+        <v>19.257216412935492</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Summer, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>17.658244572474519</v>
+        <v>18.286926043005405</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Summer, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>18.030893598611385</v>
+        <v>18.383558625854718</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Summer, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>17.442121262169479</v>
+        <v>18.160497884137975</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Summer, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>17.023125970287079</v>
+        <v>17.444693182043846</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Summer, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>18.542230345185743</v>
+        <v>18.838632050163664</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Summer, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>19.431363987327032</v>
+        <v>19.881470565450311</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Summer, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>18.123698077367823</v>
+        <v>18.401888948569017</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Summer, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>15.950892442826371</v>
+        <v>17.22062244264696</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Summer, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>13.321838583990315</v>
+        <v>14.852499933447588</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -10371,99 +10594,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Pc, Summer, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>34.804225413291498</v>
+        <v>38.144962099108653</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Pc, Summer, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>34.135125917015799</v>
+        <v>37.587302033406957</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Pc, Summer, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>32.212337639018763</v>
+        <v>35.303558721745844</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Pc, Summer, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>32.264219411325591</v>
+        <v>35.194261024954187</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Pc, Summer, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>31.361560820734365</v>
+        <v>33.762129237391854</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Pc, Summer, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>32.449881612159331</v>
+        <v>34.487320567239102</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Pc, Summer, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>32.837691358552327</v>
+        <v>35.329313944093443</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Pc, Summer, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>39.203854344363791</v>
+        <v>39.636565499177955</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Pc, Summer, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>42.588933602945922</v>
+        <v>42.969458487832753</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Pc, Summer, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>41.626591910508175</v>
+        <v>42.181342831975329</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Pc, Summer, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>40.52182533935796</v>
+        <v>40.848533133382226</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Pc, Summer, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>40.60897777663164</v>
+        <v>41.017226617417371</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Pc, Summer, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>42.122736756462515</v>
+        <v>42.773162506129786</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Pc, Summer, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>43.050751789381835</v>
+        <v>44.249133373286142</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Pc, Summer, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>39.715156526623318</v>
+        <v>40.993720139843063</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Pc, Summer, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>40.531704010493691</v>
+        <v>41.789066951555462</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Pc, Summer, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>40.962621302896224</v>
+        <v>41.66795135738289</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Pc, Summer, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>38.486014413032059</v>
+        <v>39.92276765696905</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Pc, Summer, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>37.996604674744184</v>
+        <v>38.839739098257716</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Pc, Summer, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>36.393814147113893</v>
+        <v>36.986617557069735</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Pc, Summer, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>37.031610092978532</v>
+        <v>37.93182324922509</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Pc, Summer, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>36.232032383306169</v>
+        <v>36.788414125708556</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Pc, Summer, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>34.281966787803285</v>
+        <v>36.821426787444466</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Pc, Summer, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>33.189385553217186</v>
+        <v>36.250708252131737</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -10472,99 +10695,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Pc, Summer, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>22.872741104993736</v>
+        <v>25.378293619356608</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Pc, Summer, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>21.583728718444146</v>
+        <v>24.172860805737518</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Pc, Summer, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>20.509727144353022</v>
+        <v>22.828142956398334</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Pc, Summer, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>19.082701584203278</v>
+        <v>21.28023279442472</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Pc, Summer, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>18.166496513415218</v>
+        <v>19.966922825908334</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Pc, Summer, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>19.452778363407749</v>
+        <v>20.980857579717576</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Pc, Summer, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>20.114161164538515</v>
+        <v>21.982878103694357</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Pc, Summer, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>26.860215653736386</v>
+        <v>27.184749019847011</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Pc, Summer, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>29.902640238059082</v>
+        <v>30.188033901724204</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Pc, Summer, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>31.260034078177085</v>
+        <v>31.676097269277456</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Pc, Summer, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>29.078190964845785</v>
+        <v>29.323221810363986</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Pc, Summer, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>30.236866280314686</v>
+        <v>30.543052910903981</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Pc, Summer, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>30.890807890709951</v>
+        <v>31.378627202960406</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Pc, Summer, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>29.572909079997292</v>
+        <v>30.471695267925526</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Pc, Summer, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>24.927073654177839</v>
+        <v>25.885996364092652</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Pc, Summer, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>26.50603780141779</v>
+        <v>27.449060007214118</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Pc, Summer, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>28.312309991930071</v>
+        <v>28.841307532795064</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Pc, Summer, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>28.236125091037348</v>
+        <v>29.313690023990087</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Pc, Summer, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>29.693067044129609</v>
+        <v>30.325417861764759</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Pc, Summer, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>30.040282369765666</v>
+        <v>30.484884927232546</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Pc, Summer, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>31.752979185269272</v>
+        <v>32.428139052454185</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Pc, Summer, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>30.018523740563666</v>
+        <v>30.435810047365457</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Pc, Summer, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>25.132799087997206</v>
+        <v>27.037394087728089</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Pc, Summer, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>23.02102924555814</v>
+        <v>25.317021269744046</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -10573,99 +10796,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Summer, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>12.248553234054057</v>
+        <v>13.918921576962639</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Summer, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>11.98687525802192</v>
+        <v>13.7129633162175</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Summer, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>10.7203834637334</v>
+        <v>12.265994005096942</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Summer, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>11.145861703938184</v>
+        <v>12.610882510752479</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Summer, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>11.255080435256499</v>
+        <v>12.455364643585243</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Summer, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>11.022458046600281</v>
+        <v>12.041177524140167</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Summer, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>15.614567113108599</v>
+        <v>16.86037840587916</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Summer, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>20.709832684229244</v>
+        <v>20.926188261636327</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Summer, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>21.066417840394902</v>
+        <v>21.256680282838317</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Summer, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>20.161157548671593</v>
+        <v>20.43853300940517</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Summer, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>19.528043219796764</v>
+        <v>19.691397116808897</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Summer, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>20.576193882009367</v>
+        <v>20.780318302402232</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Summer, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>21.962760434994451</v>
+        <v>22.287973309828086</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Summer, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>20.001595392296302</v>
+        <v>20.600786184248456</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Summer, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>18.617934606325619</v>
+        <v>19.257216412935492</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Summer, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>17.834415818199261</v>
+        <v>18.463097288730147</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Summer, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>17.85081532929194</v>
+        <v>18.203480356535273</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Summer, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>17.094218570259422</v>
+        <v>17.812595192227917</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Summer, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>16.853170443917541</v>
+        <v>17.274737655674308</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Summer, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>18.912687218756126</v>
+        <v>19.209088923734047</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Summer, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>19.237344747453761</v>
+        <v>19.68745132557704</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Summer, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>18.48580812780407</v>
+        <v>18.763998999005263</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Summer, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>15.950892442826371</v>
+        <v>17.22062244264696</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Summer, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>13.454055814274664</v>
+        <v>14.984717163731936</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -11076,99 +11299,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Pc, Summer, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>34.804225413291498</v>
+        <v>38.144962099108653</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Pc, Summer, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>34.813312524245013</v>
+        <v>38.265488640636171</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Pc, Summer, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>32.212337639018763</v>
+        <v>35.303558721745844</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Pc, Summer, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>32.905670910663204</v>
+        <v>35.835712524291793</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Pc, Summer, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>31.361560820734365</v>
+        <v>33.762129237391854</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Pc, Summer, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>32.126715418259963</v>
+        <v>34.164154373339727</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Pc, Summer, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>32.19701052581383</v>
+        <v>34.688633111354946</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Pc, Summer, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>39.987365386806623</v>
+        <v>40.420076541620787</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Pc, Summer, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>41.324655047082842</v>
+        <v>41.705179931969674</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Pc, Summer, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>41.210688835847542</v>
+        <v>41.765439757314695</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Pc, Summer, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>41.340016378761376</v>
+        <v>41.666724172785642</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Pc, Summer, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>41.437187481823663</v>
+        <v>41.845436322609395</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Pc, Summer, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>42.552126496607826</v>
+        <v>43.202552246275097</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Pc, Summer, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>41.365560825963811</v>
+        <v>42.563942409868119</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Pc, Summer, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>38.549523295448132</v>
+        <v>39.828086908667878</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Pc, Summer, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>40.932193753171845</v>
+        <v>42.189556694233616</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Pc, Summer, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>40.962621302896224</v>
+        <v>41.66795135738289</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Pc, Summer, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>38.486014413032059</v>
+        <v>39.92276765696905</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Pc, Summer, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>37.252654517723052</v>
+        <v>38.095788941236584</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Pc, Summer, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>36.393814147113893</v>
+        <v>36.986617557069735</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Pc, Summer, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>36.299476823810636</v>
+        <v>37.199689980057194</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Pc, Summer, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>36.955945208750073</v>
+        <v>37.51232695115246</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Pc, Summer, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>34.281966787803285</v>
+        <v>36.821426787444466</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Pc, Summer, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>32.219116304919943</v>
+        <v>35.280439003834495</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -11177,99 +11400,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Pc, Summer, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>23.099829716043672</v>
+        <v>25.605382230406544</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Pc, Summer, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>21.797872538961922</v>
+        <v>24.387004626255294</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Pc, Summer, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>20.715364388235372</v>
+        <v>23.033780200280685</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Pc, Summer, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>19.270216121340603</v>
+        <v>21.467747331562045</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Pc, Summer, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>17.986009148281067</v>
+        <v>19.786435460774182</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Pc, Summer, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>18.883577431150655</v>
+        <v>20.411656647460482</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Pc, Summer, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>20.518038629141991</v>
+        <v>22.386755568297833</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Pc, Summer, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>26.589114754877091</v>
+        <v>26.913648120987716</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Pc, Summer, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>29.014997458710788</v>
+        <v>29.30039112237591</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Pc, Summer, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>31.891000153830493</v>
+        <v>32.30706334493086</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Pc, Summer, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>28.214958361929572</v>
+        <v>28.459989207447773</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Pc, Summer, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>30.236866280314686</v>
+        <v>30.543052910903981</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Pc, Summer, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>29.983193148826327</v>
+        <v>30.471012461076782</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Pc, Summer, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>29.572909079997292</v>
+        <v>30.471695267925526</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Pc, Summer, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>25.180791548608219</v>
+        <v>26.139714258523032</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Pc, Summer, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>26.77048137943197</v>
+        <v>27.713503585228299</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Pc, Summer, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>28.592287318582848</v>
+        <v>29.12128485944784</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Pc, Summer, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>28.236125091037348</v>
+        <v>29.313690023990087</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Pc, Summer, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>28.530255003183349</v>
+        <v>29.162605820818499</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Pc, Summer, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>30.652755887515983</v>
+        <v>31.097358444982863</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Pc, Summer, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>31.432688082387767</v>
+        <v>32.107847949572687</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Pc, Summer, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>29.430460399245423</v>
+        <v>29.847746706047214</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Pc, Summer, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>25.385407428953403</v>
+        <v>27.290002428684289</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Pc, Summer, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>23.721157487769098</v>
+        <v>26.017149511955004</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -11278,99 +11501,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Summer, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>12.620164455504691</v>
+        <v>14.290532798413272</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Summer, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>11.521229082326071</v>
+        <v>13.247317140521652</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Summer, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>11.042180134351584</v>
+        <v>12.587790675715127</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Summer, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>11.36909482478093</v>
+        <v>12.834115631595225</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Summer, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>10.926357677356798</v>
+        <v>12.126641885685542</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Summer, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>11.02245804660028</v>
+        <v>12.041177524140165</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Summer, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>16.248570487339791</v>
+        <v>17.494381780110352</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Summer, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>20.5069338452771</v>
+        <v>20.723289422684182</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Summer, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>21.066417840394902</v>
+        <v>21.256680282838317</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Summer, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>20.36059334398297</v>
+        <v>20.637968804716547</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Summer, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>19.137696044289711</v>
+        <v>19.301049941301844</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Summer, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>21.415493586943995</v>
+        <v>21.619618007336861</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Summer, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>22.401590221472116</v>
+        <v>22.726803096305751</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Summer, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>20.001595392296302</v>
+        <v>20.600786184248456</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Summer, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>18.432173393595701</v>
+        <v>19.071455200205573</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Summer, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>18.01058706392401</v>
+        <v>18.639268534454896</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Summer, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>18.391050137250279</v>
+        <v>18.743715164493612</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Summer, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>17.094218570259422</v>
+        <v>17.812595192227917</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Summer, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>17.363037023026155</v>
+        <v>17.784604234782922</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Summer, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>18.357001908400552</v>
+        <v>18.653403613378472</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Summer, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>19.819402467073573</v>
+        <v>20.269509045196852</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Summer, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>17.76158802693158</v>
+        <v>18.039778898132774</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Summer, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>16.109570878365748</v>
+        <v>17.379300878186339</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Summer, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>13.05740412342162</v>
+        <v>14.588065472878892</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13896,99 +14119,99 @@
       </c>
       <c r="B2" s="4">
         <f>('FL Characterization'!B$4-'FL Characterization'!B$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.25676266666666658</v>
+        <v>4.1823932809038054</v>
       </c>
       <c r="C2" s="4">
         <f>('FL Characterization'!C$4-'FL Characterization'!C$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.28266311111111103</v>
+        <v>4.6042842287708377</v>
       </c>
       <c r="D2" s="4">
         <f>('FL Characterization'!D$4-'FL Characterization'!D$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.36791288888888884</v>
+        <v>5.9929132783327708</v>
       </c>
       <c r="E2" s="4">
         <f>('FL Characterization'!E$4-'FL Characterization'!E$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.4217973333333333</v>
+        <v>6.8706340985572005</v>
       </c>
       <c r="F2" s="4">
         <f>('FL Characterization'!F$4-'FL Characterization'!F$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.4959377777777777</v>
+        <v>8.0783038143816714</v>
       </c>
       <c r="G2" s="4">
         <f>('FL Characterization'!G$4-'FL Characterization'!G$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.57971555555555554</v>
+        <v>9.4429555350374397</v>
       </c>
       <c r="H2" s="4">
         <f>('FL Characterization'!H$4-'FL Characterization'!H$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.51676444444444447</v>
+        <v>8.4175482686518528</v>
       </c>
       <c r="I2" s="4">
         <f>('FL Characterization'!I$4-'FL Characterization'!I$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.73877155555555563</v>
+        <v>12.033810172604566</v>
       </c>
       <c r="J2" s="4">
         <f>('FL Characterization'!J$4-'FL Characterization'!J$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.67774044444444437</v>
+        <v>11.039677683053107</v>
       </c>
       <c r="K2" s="4">
         <f>('FL Characterization'!K$4-'FL Characterization'!K$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.7654684444444444</v>
+        <v>12.468674361232418</v>
       </c>
       <c r="L2" s="4">
         <f>('FL Characterization'!L$4-'FL Characterization'!L$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.78669688888888889</v>
+        <v>12.814463352136411</v>
       </c>
       <c r="M2" s="4">
         <f>('FL Characterization'!M$4-'FL Characterization'!M$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.72972622222222217</v>
+        <v>11.886471223963788</v>
       </c>
       <c r="N2" s="4">
         <f>('FL Characterization'!N$4-'FL Characterization'!N$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.68839111111111106</v>
+        <v>11.213165820102416</v>
       </c>
       <c r="O2" s="4">
         <f>('FL Characterization'!O$4-'FL Characterization'!O$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.63376355555555552</v>
+        <v>10.323340502918111</v>
       </c>
       <c r="P2" s="4">
         <f>('FL Characterization'!P$4-'FL Characterization'!P$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.58376533333333325</v>
+        <v>9.5089221476560866</v>
       </c>
       <c r="Q2" s="4">
         <f>('FL Characterization'!Q$4-'FL Characterization'!Q$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.52538133333333326</v>
+        <v>8.5579083087583463</v>
       </c>
       <c r="R2" s="4">
         <f>('FL Characterization'!R$4-'FL Characterization'!R$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.51991288888888887</v>
+        <v>8.4688331110344812</v>
       </c>
       <c r="S2" s="4">
         <f>('FL Characterization'!S$4-'FL Characterization'!S$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.41193244444444443</v>
+        <v>6.7099454535085252</v>
       </c>
       <c r="T2" s="4">
         <f>('FL Characterization'!T$4-'FL Characterization'!T$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.34082488888888884</v>
+        <v>5.5516783018312958</v>
       </c>
       <c r="U2" s="4">
         <f>('FL Characterization'!U$4-'FL Characterization'!U$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.40443377777777778</v>
+        <v>6.5878000750952399</v>
       </c>
       <c r="V2" s="4">
         <f>('FL Characterization'!V$4-'FL Characterization'!V$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.41207822222222218</v>
+        <v>6.712320019897783</v>
       </c>
       <c r="W2" s="4">
         <f>('FL Characterization'!W$4-'FL Characterization'!W$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.47092266666666666</v>
+        <v>7.6708340136103743</v>
       </c>
       <c r="X2" s="4">
         <f>('FL Characterization'!X$4-'FL Characterization'!X$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.22865777777777779</v>
+        <v>3.7245942559309246</v>
       </c>
       <c r="Y2" s="4">
         <f>('FL Characterization'!Y$4-'FL Characterization'!Y$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.2195377777777778</v>
+        <v>3.5760390659688217</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -13997,99 +14220,99 @@
       </c>
       <c r="B3" s="4">
         <f>('FL Characterization'!B$4-'FL Characterization'!B$2)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.19257199999999997</v>
+        <v>3.1367949606778542</v>
       </c>
       <c r="C3" s="4">
         <f>('FL Characterization'!C$4-'FL Characterization'!C$2)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.21199733333333329</v>
+        <v>3.453213171578128</v>
       </c>
       <c r="D3" s="4">
         <f>('FL Characterization'!D$4-'FL Characterization'!D$2)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.27593466666666666</v>
+        <v>4.4946849587495779</v>
       </c>
       <c r="E3" s="4">
         <f>('FL Characterization'!E$4-'FL Characterization'!E$2)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.31634799999999996</v>
+        <v>5.1529755739179004</v>
       </c>
       <c r="F3" s="4">
         <f>('FL Characterization'!F$4-'FL Characterization'!F$2)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.37195333333333325</v>
+        <v>6.0587278607862531</v>
       </c>
       <c r="G3" s="4">
         <f>('FL Characterization'!G$4-'FL Characterization'!G$2)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.43478666666666665</v>
+        <v>7.0822166512780793</v>
       </c>
       <c r="H3" s="4">
         <f>('FL Characterization'!H$4-'FL Characterization'!H$2)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.38757333333333338</v>
+        <v>6.3131612014888896</v>
       </c>
       <c r="I3" s="4">
         <f>('FL Characterization'!I$4-'FL Characterization'!I$2)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.55407866666666672</v>
+        <v>9.0253576294534241</v>
       </c>
       <c r="J3" s="4">
         <f>('FL Characterization'!J$4-'FL Characterization'!J$2)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.50830533333333328</v>
+        <v>8.27975826228983</v>
       </c>
       <c r="K3" s="4">
         <f>('FL Characterization'!K$4-'FL Characterization'!K$2)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.57410133333333335</v>
+        <v>9.3515057709243141</v>
       </c>
       <c r="L3" s="4">
         <f>('FL Characterization'!L$4-'FL Characterization'!L$2)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.5900226666666667</v>
+        <v>9.6108475141023071</v>
       </c>
       <c r="M3" s="4">
         <f>('FL Characterization'!M$4-'FL Characterization'!M$2)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.5472946666666666</v>
+        <v>8.9148534179728411</v>
       </c>
       <c r="N3" s="4">
         <f>('FL Characterization'!N$4-'FL Characterization'!N$2)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.51629333333333327</v>
+        <v>8.4098743650768117</v>
       </c>
       <c r="O3" s="4">
         <f>('FL Characterization'!O$4-'FL Characterization'!O$2)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.47532266666666662</v>
+        <v>7.742505377188583</v>
       </c>
       <c r="P3" s="4">
         <f>('FL Characterization'!P$4-'FL Characterization'!P$2)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.43782399999999999</v>
+        <v>7.1316916107420649</v>
       </c>
       <c r="Q3" s="4">
         <f>('FL Characterization'!Q$4-'FL Characterization'!Q$2)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.39403599999999994</v>
+        <v>6.4184312315687588</v>
       </c>
       <c r="R3" s="4">
         <f>('FL Characterization'!R$4-'FL Characterization'!R$2)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.38993466666666665</v>
+        <v>6.3516248332758609</v>
       </c>
       <c r="S3" s="4">
         <f>('FL Characterization'!S$4-'FL Characterization'!S$2)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.3089493333333333</v>
+        <v>5.0324590901313941</v>
       </c>
       <c r="T3" s="4">
         <f>('FL Characterization'!T$4-'FL Characterization'!T$2)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.25561866666666666</v>
+        <v>4.1637587263734712</v>
       </c>
       <c r="U3" s="4">
         <f>('FL Characterization'!U$4-'FL Characterization'!U$2)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.30332533333333334</v>
+        <v>4.9408500563214304</v>
       </c>
       <c r="V3" s="4">
         <f>('FL Characterization'!V$4-'FL Characterization'!V$2)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.30905866666666665</v>
+        <v>5.0342400149233377</v>
       </c>
       <c r="W3" s="4">
         <f>('FL Characterization'!W$4-'FL Characterization'!W$2)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.35319200000000001</v>
+        <v>5.7531255102077807</v>
       </c>
       <c r="X3" s="4">
         <f>('FL Characterization'!X$4-'FL Characterization'!X$2)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.17149333333333333</v>
+        <v>2.7934456919481936</v>
       </c>
       <c r="Y3" s="4">
         <f>('FL Characterization'!Y$4-'FL Characterization'!Y$2)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.16465333333333335</v>
+        <v>2.6820292994766164</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -14098,99 +14321,99 @@
       </c>
       <c r="B4" s="4">
         <f>('FL Characterization'!B$4-'FL Characterization'!B$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.12838133333333329</v>
+        <v>2.0911966404519027</v>
       </c>
       <c r="C4" s="4">
         <f>('FL Characterization'!C$4-'FL Characterization'!C$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.14133155555555552</v>
+        <v>2.3021421143854188</v>
       </c>
       <c r="D4" s="4">
         <f>('FL Characterization'!D$4-'FL Characterization'!D$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.18395644444444442</v>
+        <v>2.9964566391663854</v>
       </c>
       <c r="E4" s="4">
         <f>('FL Characterization'!E$4-'FL Characterization'!E$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.21089866666666665</v>
+        <v>3.4353170492786003</v>
       </c>
       <c r="F4" s="4">
         <f>('FL Characterization'!F$4-'FL Characterization'!F$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.24796888888888885</v>
+        <v>4.0391519071908357</v>
       </c>
       <c r="G4" s="4">
         <f>('FL Characterization'!G$4-'FL Characterization'!G$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.28985777777777777</v>
+        <v>4.7214777675187198</v>
       </c>
       <c r="H4" s="4">
         <f>('FL Characterization'!H$4-'FL Characterization'!H$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.25838222222222224</v>
+        <v>4.2087741343259264</v>
       </c>
       <c r="I4" s="4">
         <f>('FL Characterization'!I$4-'FL Characterization'!I$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.36938577777777781</v>
+        <v>6.016905086302283</v>
       </c>
       <c r="J4" s="4">
         <f>('FL Characterization'!J$4-'FL Characterization'!J$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.33887022222222218</v>
+        <v>5.5198388415265534</v>
       </c>
       <c r="K4" s="4">
         <f>('FL Characterization'!K$4-'FL Characterization'!K$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.3827342222222222</v>
+        <v>6.2343371806162091</v>
       </c>
       <c r="L4" s="4">
         <f>('FL Characterization'!L$4-'FL Characterization'!L$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.39334844444444445</v>
+        <v>6.4072316760682053</v>
       </c>
       <c r="M4" s="4">
         <f>('FL Characterization'!M$4-'FL Characterization'!M$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.36486311111111108</v>
+        <v>5.9432356119818941</v>
       </c>
       <c r="N4" s="4">
         <f>('FL Characterization'!N$4-'FL Characterization'!N$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.34419555555555553</v>
+        <v>5.6065829100512081</v>
       </c>
       <c r="O4" s="4">
         <f>('FL Characterization'!O$4-'FL Characterization'!O$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.31688177777777776</v>
+        <v>5.1616702514590553</v>
       </c>
       <c r="P4" s="4">
         <f>('FL Characterization'!P$4-'FL Characterization'!P$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.29188266666666662</v>
+        <v>4.7544610738280433</v>
       </c>
       <c r="Q4" s="4">
         <f>('FL Characterization'!Q$4-'FL Characterization'!Q$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.26269066666666663</v>
+        <v>4.2789541543791731</v>
       </c>
       <c r="R4" s="4">
         <f>('FL Characterization'!R$4-'FL Characterization'!R$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.25995644444444443</v>
+        <v>4.2344165555172406</v>
       </c>
       <c r="S4" s="4">
         <f>('FL Characterization'!S$4-'FL Characterization'!S$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.20596622222222222</v>
+        <v>3.3549727267542626</v>
       </c>
       <c r="T4" s="4">
         <f>('FL Characterization'!T$4-'FL Characterization'!T$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.17041244444444442</v>
+        <v>2.7758391509156479</v>
       </c>
       <c r="U4" s="4">
         <f>('FL Characterization'!U$4-'FL Characterization'!U$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.20221688888888889</v>
+        <v>3.29390003754762</v>
       </c>
       <c r="V4" s="4">
         <f>('FL Characterization'!V$4-'FL Characterization'!V$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.20603911111111109</v>
+        <v>3.3561600099488915</v>
       </c>
       <c r="W4" s="4">
         <f>('FL Characterization'!W$4-'FL Characterization'!W$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.23546133333333333</v>
+        <v>3.8354170068051872</v>
       </c>
       <c r="X4" s="4">
         <f>('FL Characterization'!X$4-'FL Characterization'!X$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.1143288888888889</v>
+        <v>1.8622971279654623</v>
       </c>
       <c r="Y4" s="4">
         <f>('FL Characterization'!Y$4-'FL Characterization'!Y$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.1097688888888889</v>
+        <v>1.7880195329844109</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -14601,99 +14824,99 @@
       </c>
       <c r="B2" s="4">
         <f>('FL Characterization'!B$2-'FL Characterization'!B$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.71183999999999992</v>
+        <v>11.59512351125254</v>
       </c>
       <c r="C2" s="4">
         <f>('FL Characterization'!C$2-'FL Characterization'!C$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.7533333333333333</v>
+        <v>12.271006188390061</v>
       </c>
       <c r="D2" s="4">
         <f>('FL Characterization'!D$2-'FL Characterization'!D$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.79550222222222222</v>
+        <v>12.957892953672919</v>
       </c>
       <c r="E2" s="4">
         <f>('FL Characterization'!E$2-'FL Characterization'!E$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.83166222222222219</v>
+        <v>13.546901250715642</v>
       </c>
       <c r="F2" s="4">
         <f>('FL Characterization'!F$2-'FL Characterization'!F$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.8411022222222222</v>
+        <v>13.700668903483432</v>
       </c>
       <c r="G2" s="4">
         <f>('FL Characterization'!G$2-'FL Characterization'!G$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.87983999999999984</v>
+        <v>14.331666484238641</v>
       </c>
       <c r="H2" s="4">
         <f>('FL Characterization'!H$2-'FL Characterization'!H$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.87534222222222224</v>
+        <v>14.258402423692031</v>
       </c>
       <c r="I2" s="4">
         <f>('FL Characterization'!I$2-'FL Characterization'!I$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.82740266666666651</v>
+        <v>13.477517579146596</v>
       </c>
       <c r="J2" s="4">
         <f>('FL Characterization'!J$2-'FL Characterization'!J$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.74966044444444446</v>
+        <v>12.211178698631443</v>
       </c>
       <c r="K2" s="4">
         <f>('FL Characterization'!K$2-'FL Characterization'!K$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>1.1008551111111111</v>
+        <v>17.931769753493722</v>
       </c>
       <c r="L2" s="4">
         <f>('FL Characterization'!L$2-'FL Characterization'!L$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>1.0750293333333334</v>
+        <v>17.511095046948022</v>
       </c>
       <c r="M2" s="4">
         <f>('FL Characterization'!M$2-'FL Characterization'!M$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.98990933333333342</v>
+        <v>16.124579940635059</v>
       </c>
       <c r="N2" s="4">
         <f>('FL Characterization'!N$2-'FL Characterization'!N$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.96585600000000005</v>
+        <v>15.732776486407525</v>
       </c>
       <c r="O2" s="4">
         <f>('FL Characterization'!O$2-'FL Characterization'!O$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.96982577777777768</v>
+        <v>15.797439983324752</v>
       </c>
       <c r="P2" s="4">
         <f>('FL Characterization'!P$2-'FL Characterization'!P$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.92387911111111098</v>
+        <v>15.049017198808077</v>
       </c>
       <c r="Q2" s="4">
         <f>('FL Characterization'!Q$2-'FL Characterization'!Q$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.8468728888888889</v>
+        <v>13.794666982746003</v>
       </c>
       <c r="R2" s="4">
         <f>('FL Characterization'!R$2-'FL Characterization'!R$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.76110933333333342</v>
+        <v>12.397669034568274</v>
       </c>
       <c r="S2" s="4">
         <f>('FL Characterization'!S$2-'FL Characterization'!S$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.73380622222222225</v>
+        <v>11.95293012473631</v>
       </c>
       <c r="T2" s="4">
         <f>('FL Characterization'!T$2-'FL Characterization'!T$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.46126755555555554</v>
+        <v>7.5135624275120936</v>
       </c>
       <c r="U2" s="4">
         <f>('FL Characterization'!U$2-'FL Characterization'!U$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.49328355555555553</v>
+        <v>8.035069331221159</v>
       </c>
       <c r="V2" s="4">
         <f>('FL Characterization'!V$2-'FL Characterization'!V$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.5393173333333332</v>
+        <v>8.7849110639460495</v>
       </c>
       <c r="W2" s="4">
         <f>('FL Characterization'!W$2-'FL Characterization'!W$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.5521866666666666</v>
+        <v>8.9945389431147937</v>
       </c>
       <c r="X2" s="4">
         <f>('FL Characterization'!X$2-'FL Characterization'!X$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.57589333333333326</v>
+        <v>9.3806955626361663</v>
       </c>
       <c r="Y2" s="4">
         <f>('FL Characterization'!Y$2-'FL Characterization'!Y$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.63567999999999991</v>
+        <v>10.35455736349884</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -14702,99 +14925,99 @@
       </c>
       <c r="B3" s="4">
         <f>('FL Characterization'!B$2-'FL Characterization'!B$3)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.53387999999999991</v>
+        <v>8.6963426334394036</v>
       </c>
       <c r="C3" s="4">
         <f>('FL Characterization'!C$2-'FL Characterization'!C$3)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.56499999999999995</v>
+        <v>9.2032546412925456</v>
       </c>
       <c r="D3" s="4">
         <f>('FL Characterization'!D$2-'FL Characterization'!D$3)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.59662666666666664</v>
+        <v>9.7184197152546901</v>
       </c>
       <c r="E3" s="4">
         <f>('FL Characterization'!E$2-'FL Characterization'!E$3)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.62374666666666667</v>
+        <v>10.160175938036732</v>
       </c>
       <c r="F3" s="4">
         <f>('FL Characterization'!F$2-'FL Characterization'!F$3)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.63082666666666665</v>
+        <v>10.275501677612574</v>
       </c>
       <c r="G3" s="4">
         <f>('FL Characterization'!G$2-'FL Characterization'!G$3)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.65987999999999991</v>
+        <v>10.748749863178981</v>
       </c>
       <c r="H3" s="4">
         <f>('FL Characterization'!H$2-'FL Characterization'!H$3)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.65650666666666668</v>
+        <v>10.693801817769023</v>
       </c>
       <c r="I3" s="4">
         <f>('FL Characterization'!I$2-'FL Characterization'!I$3)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.62055199999999988</v>
+        <v>10.108138184359948</v>
       </c>
       <c r="J3" s="4">
         <f>('FL Characterization'!J$2-'FL Characterization'!J$3)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.56224533333333326</v>
+        <v>9.1583840239735821</v>
       </c>
       <c r="K3" s="4">
         <f>('FL Characterization'!K$2-'FL Characterization'!K$3)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.82564133333333323</v>
+        <v>13.448827315120292</v>
       </c>
       <c r="L3" s="4">
         <f>('FL Characterization'!L$2-'FL Characterization'!L$3)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.80627199999999999</v>
+        <v>13.133321285211014</v>
       </c>
       <c r="M3" s="4">
         <f>('FL Characterization'!M$2-'FL Characterization'!M$3)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.74243200000000009</v>
+        <v>12.093434955476294</v>
       </c>
       <c r="N3" s="4">
         <f>('FL Characterization'!N$2-'FL Characterization'!N$3)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.72439200000000004</v>
+        <v>11.799582364805644</v>
       </c>
       <c r="O3" s="4">
         <f>('FL Characterization'!O$2-'FL Characterization'!O$3)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.72736933333333331</v>
+        <v>11.848079987493565</v>
       </c>
       <c r="P3" s="4">
         <f>('FL Characterization'!P$2-'FL Characterization'!P$3)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.69290933333333327</v>
+        <v>11.286762899106058</v>
       </c>
       <c r="Q3" s="4">
         <f>('FL Characterization'!Q$2-'FL Characterization'!Q$3)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.63515466666666665</v>
+        <v>10.346000237059503</v>
       </c>
       <c r="R3" s="4">
         <f>('FL Characterization'!R$2-'FL Characterization'!R$3)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.57083200000000001</v>
+        <v>9.2982517759262056</v>
       </c>
       <c r="S3" s="4">
         <f>('FL Characterization'!S$2-'FL Characterization'!S$3)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.55035466666666666</v>
+        <v>8.9646975935522324</v>
       </c>
       <c r="T3" s="4">
         <f>('FL Characterization'!T$2-'FL Characterization'!T$3)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.34595066666666663</v>
+        <v>5.6351718206340706</v>
       </c>
       <c r="U3" s="4">
         <f>('FL Characterization'!U$2-'FL Characterization'!U$3)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.36996266666666666</v>
+        <v>6.0263019984158692</v>
       </c>
       <c r="V3" s="4">
         <f>('FL Characterization'!V$2-'FL Characterization'!V$3)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.40448799999999996</v>
+        <v>6.5886832979595376</v>
       </c>
       <c r="W3" s="4">
         <f>('FL Characterization'!W$2-'FL Characterization'!W$3)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.41413999999999995</v>
+        <v>6.7459042073360962</v>
       </c>
       <c r="X3" s="4">
         <f>('FL Characterization'!X$2-'FL Characterization'!X$3)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.43191999999999997</v>
+        <v>7.0355216719771256</v>
       </c>
       <c r="Y3" s="4">
         <f>('FL Characterization'!Y$2-'FL Characterization'!Y$3)*VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.47675999999999996</v>
+        <v>7.7659180226241293</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -14803,99 +15026,99 @@
       </c>
       <c r="B4" s="4">
         <f>('FL Characterization'!B$2-'FL Characterization'!B$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.35591999999999996</v>
+        <v>5.79756175562627</v>
       </c>
       <c r="C4" s="4">
         <f>('FL Characterization'!C$2-'FL Characterization'!C$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.37666666666666665</v>
+        <v>6.1355030941950304</v>
       </c>
       <c r="D4" s="4">
         <f>('FL Characterization'!D$2-'FL Characterization'!D$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.39775111111111111</v>
+        <v>6.4789464768364597</v>
       </c>
       <c r="E4" s="4">
         <f>('FL Characterization'!E$2-'FL Characterization'!E$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.4158311111111111</v>
+        <v>6.7734506253578211</v>
       </c>
       <c r="F4" s="4">
         <f>('FL Characterization'!F$2-'FL Characterization'!F$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.4205511111111111</v>
+        <v>6.8503344517417162</v>
       </c>
       <c r="G4" s="4">
         <f>('FL Characterization'!G$2-'FL Characterization'!G$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.43991999999999992</v>
+        <v>7.1658332421193203</v>
       </c>
       <c r="H4" s="4">
         <f>('FL Characterization'!H$2-'FL Characterization'!H$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.43767111111111112</v>
+        <v>7.1292012118460155</v>
       </c>
       <c r="I4" s="4">
         <f>('FL Characterization'!I$2-'FL Characterization'!I$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.41370133333333325</v>
+        <v>6.7387587895732981</v>
       </c>
       <c r="J4" s="4">
         <f>('FL Characterization'!J$2-'FL Characterization'!J$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.37483022222222223</v>
+        <v>6.1055893493157214</v>
       </c>
       <c r="K4" s="4">
         <f>('FL Characterization'!K$2-'FL Characterization'!K$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.55042755555555556</v>
+        <v>8.9658848767468609</v>
       </c>
       <c r="L4" s="4">
         <f>('FL Characterization'!L$2-'FL Characterization'!L$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.5375146666666667</v>
+        <v>8.7555475234740108</v>
       </c>
       <c r="M4" s="4">
         <f>('FL Characterization'!M$2-'FL Characterization'!M$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.49495466666666671</v>
+        <v>8.0622899703175293</v>
       </c>
       <c r="N4" s="4">
         <f>('FL Characterization'!N$2-'FL Characterization'!N$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.48292800000000002</v>
+        <v>7.8663882432037626</v>
       </c>
       <c r="O4" s="4">
         <f>('FL Characterization'!O$2-'FL Characterization'!O$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.48491288888888884</v>
+        <v>7.898719991662376</v>
       </c>
       <c r="P4" s="4">
         <f>('FL Characterization'!P$2-'FL Characterization'!P$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.46193955555555549</v>
+        <v>7.5245085994040384</v>
       </c>
       <c r="Q4" s="4">
         <f>('FL Characterization'!Q$2-'FL Characterization'!Q$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.42343644444444445</v>
+        <v>6.8973334913730016</v>
       </c>
       <c r="R4" s="4">
         <f>('FL Characterization'!R$2-'FL Characterization'!R$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.38055466666666671</v>
+        <v>6.198834517284137</v>
       </c>
       <c r="S4" s="4">
         <f>('FL Characterization'!S$2-'FL Characterization'!S$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.36690311111111112</v>
+        <v>5.9764650623681552</v>
       </c>
       <c r="T4" s="4">
         <f>('FL Characterization'!T$2-'FL Characterization'!T$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.23063377777777777</v>
+        <v>3.7567812137560468</v>
       </c>
       <c r="U4" s="4">
         <f>('FL Characterization'!U$2-'FL Characterization'!U$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.24664177777777777</v>
+        <v>4.0175346656105795</v>
       </c>
       <c r="V4" s="4">
         <f>('FL Characterization'!V$2-'FL Characterization'!V$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.2696586666666666</v>
+        <v>4.3924555319730247</v>
       </c>
       <c r="W4" s="4">
         <f>('FL Characterization'!W$2-'FL Characterization'!W$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.2760933333333333</v>
+        <v>4.4972694715573969</v>
       </c>
       <c r="X4" s="4">
         <f>('FL Characterization'!X$2-'FL Characterization'!X$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.28794666666666663</v>
+        <v>4.6903477813180832</v>
       </c>
       <c r="Y4" s="4">
         <f>('FL Characterization'!Y$2-'FL Characterization'!Y$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.31783999999999996</v>
+        <v>5.1772786817494199</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -18069,8 +18292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8887EC56-5E5B-40B7-BB11-11EDFDA79162}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18160,76 +18383,100 @@
         <v>15</v>
       </c>
       <c r="B2" s="4">
-        <v>0.49164000000000002</v>
+        <f>'[1]FL Profiles'!B2*Main!$B$6</f>
+        <v>8.0082975430886147</v>
       </c>
       <c r="C2" s="4">
-        <v>0.50804000000000005</v>
+        <f>'[1]FL Profiles'!C2*Main!$B$6</f>
+        <v>8.2754362618801149</v>
       </c>
       <c r="D2" s="4">
-        <v>0.45491999999999999</v>
+        <f>'[1]FL Profiles'!D2*Main!$B$6</f>
+        <v>7.4101674361359366</v>
       </c>
       <c r="E2" s="4">
-        <v>0.43120000000000003</v>
+        <f>'[1]FL Profiles'!E2*Main!$B$6</f>
+        <v>7.0237936306643283</v>
       </c>
       <c r="F2" s="4">
-        <v>0.35327999999999998</v>
+        <f>'[1]FL Profiles'!F2*Main!$B$6</f>
+        <v>5.7545589374793451</v>
       </c>
       <c r="G2" s="4">
-        <v>0.29984</v>
+        <f>'[1]FL Profiles'!G2*Main!$B$6</f>
+        <v>4.8840776489294813</v>
       </c>
       <c r="H2" s="4">
-        <v>0.36668000000000001</v>
+        <f>'[1]FL Profiles'!H2*Main!$B$6</f>
+        <v>5.9728308174675222</v>
       </c>
       <c r="I2" s="4">
-        <v>6.368E-2</v>
+        <f>'[1]FL Profiles'!I2*Main!$B$6</f>
+        <v>1.0372800983318748</v>
       </c>
       <c r="J2" s="4">
-        <v>5.6000000000000008E-2</v>
+        <f>'[1]FL Profiles'!J2*Main!$B$6</f>
+        <v>0.91218099099536731</v>
       </c>
       <c r="K2" s="4">
-        <v>8.1640000000000004E-2</v>
+        <f>'[1]FL Profiles'!K2*Main!$B$6</f>
+        <v>1.3298295733011034</v>
       </c>
       <c r="L2" s="4">
-        <v>4.8079999999999998E-2</v>
+        <f>'[1]FL Profiles'!L2*Main!$B$6</f>
+        <v>0.78317253655459396</v>
       </c>
       <c r="M2" s="4">
-        <v>6.0080000000000001E-2</v>
+        <f>'[1]FL Profiles'!M2*Main!$B$6</f>
+        <v>0.9786398917678869</v>
       </c>
       <c r="N2" s="4">
-        <v>9.572E-2</v>
+        <f>'[1]FL Profiles'!N2*Main!$B$6</f>
+        <v>1.5591779367513672</v>
       </c>
       <c r="O2" s="4">
-        <v>0.17636000000000002</v>
+        <f>'[1]FL Profiles'!O2*Main!$B$6</f>
+        <v>2.8727185637846961</v>
       </c>
       <c r="P2" s="4">
-        <v>0.18815999999999999</v>
+        <f>'[1]FL Profiles'!P2*Main!$B$6</f>
+        <v>3.064928129744434</v>
       </c>
       <c r="Q2" s="4">
-        <v>0.18504000000000001</v>
+        <f>'[1]FL Profiles'!Q2*Main!$B$6</f>
+        <v>3.0141066173889781</v>
       </c>
       <c r="R2" s="4">
-        <v>0.1038</v>
+        <f>'[1]FL Profiles'!R2*Main!$B$6</f>
+        <v>1.6907926225949843</v>
       </c>
       <c r="S2" s="4">
-        <v>0.21143999999999999</v>
+        <f>'[1]FL Profiles'!S2*Main!$B$6</f>
+        <v>3.4441347988582223</v>
       </c>
       <c r="T2" s="4">
-        <v>0.12408</v>
+        <f>'[1]FL Profiles'!T2*Main!$B$6</f>
+        <v>2.0211324529054493</v>
       </c>
       <c r="U2" s="4">
-        <v>8.7239999999999998E-2</v>
+        <f>'[1]FL Profiles'!U2*Main!$B$6</f>
+        <v>1.42104767240064</v>
       </c>
       <c r="V2" s="4">
-        <v>0.13247999999999999</v>
+        <f>'[1]FL Profiles'!V2*Main!$B$6</f>
+        <v>2.1579596015547544</v>
       </c>
       <c r="W2" s="4">
-        <v>8.1879999999999994E-2</v>
+        <f>'[1]FL Profiles'!W2*Main!$B$6</f>
+        <v>1.3337389204053691</v>
       </c>
       <c r="X2" s="4">
-        <v>0.37372</v>
+        <f>'[1]FL Profiles'!X2*Main!$B$6</f>
+        <v>6.0875049991926549</v>
       </c>
       <c r="Y2" s="4">
-        <v>0.45052000000000003</v>
+        <f>'[1]FL Profiles'!Y2*Main!$B$6</f>
+        <v>7.3384960725577306</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -18237,76 +18484,100 @@
         <v>16</v>
       </c>
       <c r="B3" s="4">
-        <v>-1.1099999999999999</v>
+        <f>'[1]FL Profiles'!B3*Main!$B$6</f>
+        <v>-18.080730357229601</v>
       </c>
       <c r="C3" s="4">
-        <v>-1.18696</v>
+        <f>'[1]FL Profiles'!C3*Main!$B$6</f>
+        <v>-19.33432766199752</v>
       </c>
       <c r="D3" s="4">
-        <v>-1.3349600000000001</v>
+        <f>'[1]FL Profiles'!D3*Main!$B$6</f>
+        <v>-21.745091709628134</v>
       </c>
       <c r="E3" s="4">
-        <v>-1.44004</v>
+        <f>'[1]FL Profiles'!E3*Main!$B$6</f>
+        <v>-23.456734183445867</v>
       </c>
       <c r="F3" s="4">
-        <v>-1.5391999999999999</v>
+        <f>'[1]FL Profiles'!F3*Main!$B$6</f>
+        <v>-25.071946095358381</v>
       </c>
       <c r="G3" s="4">
-        <v>-1.6797999999999997</v>
+        <f>'[1]FL Profiles'!G3*Main!$B$6</f>
+        <v>-27.36217194060746</v>
       </c>
       <c r="H3" s="4">
-        <v>-1.60284</v>
+        <f>'[1]FL Profiles'!H3*Main!$B$6</f>
+        <v>-26.108574635839545</v>
       </c>
       <c r="I3" s="4">
-        <v>-1.7979759999999998</v>
+        <f>'[1]FL Profiles'!I3*Main!$B$6</f>
+        <v>-29.287134454747971</v>
       </c>
       <c r="J3" s="4">
-        <v>-1.630736</v>
+        <f>'[1]FL Profiles'!J3*Main!$B$6</f>
+        <v>-26.562971080925379</v>
       </c>
       <c r="K3" s="4">
-        <v>-2.3952839999999997</v>
+        <f>'[1]FL Profiles'!K3*Main!$B$6</f>
+        <v>-39.016652372059774</v>
       </c>
       <c r="L3" s="4">
-        <v>-2.370736</v>
+        <f>'[1]FL Profiles'!L3*Main!$B$6</f>
+        <v>-38.616791319078452</v>
       </c>
       <c r="M3" s="4">
-        <v>-2.1672160000000003</v>
+        <f>'[1]FL Profiles'!M3*Main!$B$6</f>
+        <v>-35.301664974661001</v>
       </c>
       <c r="N3" s="4">
-        <v>-2.0774560000000002</v>
+        <f>'[1]FL Profiles'!N3*Main!$B$6</f>
+        <v>-33.839569157665565</v>
       </c>
       <c r="O3" s="4">
-        <v>-2.0057480000000001</v>
+        <f>'[1]FL Profiles'!O3*Main!$B$6</f>
+        <v>-32.671521398696001</v>
       </c>
       <c r="P3" s="4">
-        <v>-1.890568</v>
+        <f>'[1]FL Profiles'!P3*Main!$B$6</f>
+        <v>-30.795360567573741</v>
       </c>
       <c r="Q3" s="4">
-        <v>-1.720424</v>
+        <f>'[1]FL Profiles'!Q3*Main!$B$6</f>
+        <v>-28.023894093789529</v>
       </c>
       <c r="R3" s="4">
-        <v>-1.6086960000000001</v>
+        <f>'[1]FL Profiles'!R3*Main!$B$6</f>
+        <v>-26.203962705183635</v>
       </c>
       <c r="S3" s="4">
-        <v>-1.439624</v>
+        <f>'[1]FL Profiles'!S3*Main!$B$6</f>
+        <v>-23.449957981798477</v>
       </c>
       <c r="T3" s="4">
-        <v>-0.91377200000000003</v>
+        <f>'[1]FL Profiles'!T3*Main!$B$6</f>
+        <v>-14.884383008996764</v>
       </c>
       <c r="U3" s="4">
-        <v>-1.022648</v>
+        <f>'[1]FL Profiles'!U3*Main!$B$6</f>
+        <v>-16.65785832284697</v>
       </c>
       <c r="V3" s="4">
-        <v>-1.0809839999999999</v>
+        <f>'[1]FL Profiles'!V3*Main!$B$6</f>
+        <v>-17.608090292323858</v>
       </c>
       <c r="W3" s="4">
-        <v>-1.1605399999999999</v>
+        <f>'[1]FL Profiles'!W3*Main!$B$6</f>
+        <v>-18.903973701602919</v>
       </c>
       <c r="X3" s="4">
-        <v>-0.92203999999999997</v>
+        <f>'[1]FL Profiles'!X3*Main!$B$6</f>
+        <v>-15.019060016738722</v>
       </c>
       <c r="Y3" s="4">
-        <v>-0.97975999999999996</v>
+        <f>'[1]FL Profiles'!Y3*Main!$B$6</f>
+        <v>-15.95925799531466</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -18314,76 +18585,100 @@
         <v>17</v>
       </c>
       <c r="B4" s="4">
-        <v>1.069356</v>
+        <f>'[1]FL Profiles'!B4*Main!$B$6</f>
+        <v>17.418682425122178</v>
       </c>
       <c r="C4" s="4">
-        <v>1.1440319999999999</v>
+        <f>'[1]FL Profiles'!C4*Main!$B$6</f>
+        <v>18.635075776614499</v>
       </c>
       <c r="D4" s="4">
-        <v>1.282724</v>
+        <f>'[1]FL Profiles'!D4*Main!$B$6</f>
+        <v>20.89422231238467</v>
       </c>
       <c r="E4" s="4">
-        <v>1.380244</v>
+        <f>'[1]FL Profiles'!E4*Main!$B$6</f>
+        <v>22.482720352418031</v>
       </c>
       <c r="F4" s="4">
-        <v>1.4691399999999999</v>
+        <f>'[1]FL Profiles'!F4*Main!$B$6</f>
+        <v>23.930742519838105</v>
       </c>
       <c r="G4" s="4">
-        <v>1.6042000000000001</v>
+        <f>'[1]FL Profiles'!G4*Main!$B$6</f>
+        <v>26.13072760276372</v>
       </c>
       <c r="H4" s="4">
-        <v>1.5294000000000001</v>
+        <f>'[1]FL Profiles'!H4*Main!$B$6</f>
+        <v>24.912314421934191</v>
       </c>
       <c r="I4" s="4">
-        <v>1.7259160000000002</v>
+        <f>'[1]FL Profiles'!I4*Main!$B$6</f>
+        <v>28.113352986692149</v>
       </c>
       <c r="J4" s="4">
-        <v>1.580916</v>
+        <f>'[1]FL Profiles'!J4*Main!$B$6</f>
+        <v>25.751455777864859</v>
       </c>
       <c r="K4" s="4">
-        <v>1.803944</v>
+        <f>'[1]FL Profiles'!K4*Main!$B$6</f>
+        <v>29.384346886074049</v>
       </c>
       <c r="L4" s="4">
-        <v>1.8181480000000001</v>
+        <f>'[1]FL Profiles'!L4*Main!$B$6</f>
+        <v>29.61571507886152</v>
       </c>
       <c r="M4" s="4">
-        <v>1.7019639999999998</v>
+        <f>'[1]FL Profiles'!M4*Main!$B$6</f>
+        <v>27.723200145686413</v>
       </c>
       <c r="N4" s="4">
-        <v>1.6446000000000001</v>
+        <f>'[1]FL Profiles'!N4*Main!$B$6</f>
+        <v>26.788801031981805</v>
       </c>
       <c r="O4" s="4">
-        <v>1.602328</v>
+        <f>'[1]FL Profiles'!O4*Main!$B$6</f>
+        <v>26.100234695350444</v>
       </c>
       <c r="P4" s="4">
-        <v>1.5016320000000001</v>
+        <f>'[1]FL Profiles'!P4*Main!$B$6</f>
+        <v>24.460002961970631</v>
       </c>
       <c r="Q4" s="4">
-        <v>1.367148</v>
+        <f>'[1]FL Profiles'!Q4*Main!$B$6</f>
+        <v>22.269400312095257</v>
       </c>
       <c r="R4" s="4">
-        <v>1.273604</v>
+        <f>'[1]FL Profiles'!R4*Main!$B$6</f>
+        <v>20.745667122422567</v>
       </c>
       <c r="S4" s="4">
-        <v>1.138288</v>
+        <f>'[1]FL Profiles'!S4*Main!$B$6</f>
+        <v>18.541512069252406</v>
       </c>
       <c r="T4" s="4">
-        <v>0.89093599999999995</v>
+        <f>'[1]FL Profiles'!T4*Main!$B$6</f>
+        <v>14.512408632025865</v>
       </c>
       <c r="U4" s="4">
-        <v>0.9972160000000001</v>
+        <f>'[1]FL Profiles'!U4*Main!$B$6</f>
+        <v>16.243597841364931</v>
       </c>
       <c r="V4" s="4">
-        <v>1.0596559999999999</v>
+        <f>'[1]FL Profiles'!V4*Main!$B$6</f>
+        <v>17.260679646324768</v>
       </c>
       <c r="W4" s="4">
-        <v>1.141456</v>
+        <f>'[1]FL Profiles'!W4*Main!$B$6</f>
+        <v>18.593115451028712</v>
       </c>
       <c r="X4" s="4">
-        <v>0.88819999999999999</v>
+        <f>'[1]FL Profiles'!X4*Main!$B$6</f>
+        <v>14.467842075037236</v>
       </c>
       <c r="Y4" s="4">
-        <v>0.9444800000000001</v>
+        <f>'[1]FL Profiles'!Y4*Main!$B$6</f>
+        <v>15.384583970987581</v>
       </c>
     </row>
   </sheetData>
@@ -18484,99 +18779,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Pc, Winter, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>34.098278254005876</v>
+        <v>37.439014939823032</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Pc, Winter, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>32.839443381498491</v>
+        <v>36.291619497889648</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Pc, Winter, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>31.654164607435522</v>
+        <v>34.745385690162607</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Pc, Winter, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>32.592909363172097</v>
+        <v>35.522950976800686</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Pc, Winter, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>31.643986898368873</v>
+        <v>34.044555315026358</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Pc, Winter, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>31.662172538833495</v>
+        <v>33.699611493913267</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Pc, Winter, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>31.982890852666237</v>
+        <v>34.47451343820736</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Pc, Winter, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>41.33045069017345</v>
+        <v>41.763161844987614</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Pc, Winter, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>42.152783586333548</v>
+        <v>42.53330847122038</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Pc, Winter, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>41.762257654743429</v>
+        <v>42.317008576210583</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Pc, Winter, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>41.620660172973949</v>
+        <v>41.947367966998215</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Pc, Winter, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>42.500203560052299</v>
+        <v>42.90845240083803</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Pc, Winter, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>42.058831792484746</v>
+        <v>42.709257542152017</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Pc, Winter, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>41.350897703350611</v>
+        <v>42.549279287254919</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Pc, Winter, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>35.986873850692817</v>
+        <v>37.265437463912562</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Pc, Winter, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>38.708506909036878</v>
+        <v>39.965869850098649</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Pc, Winter, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>42.040602288488174</v>
+        <v>42.745932342974839</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Pc, Winter, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>41.448782973586795</v>
+        <v>42.885536217523786</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Pc, Winter, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>39.279005238827985</v>
+        <v>40.122139662341517</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Pc, Winter, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>37.443884864126559</v>
+        <v>38.036688274082401</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Pc, Winter, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>37.199737123288919</v>
+        <v>38.099950279535477</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Pc, Winter, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>35.526626165658101</v>
+        <v>36.083007908060488</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Pc, Winter, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>32.219092568012783</v>
+        <v>34.758552567653965</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Pc, Winter, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>31.558793500618833</v>
+        <v>34.620116199533378</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -18585,99 +18880,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Pc, Winter, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>18.544448989644827</v>
+        <v>21.0500015040077</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Pc, Winter, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>18.026800392260547</v>
+        <v>20.615932479553919</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Pc, Winter, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>17.25057935608881</v>
+        <v>19.568995168134123</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Pc, Winter, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>17.101089954337933</v>
+        <v>19.298621164559375</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Pc, Winter, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>17.245507646287347</v>
+        <v>19.045933958780463</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Pc, Winter, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>18.387454606743766</v>
+        <v>19.915533823053593</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Pc, Winter, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>22.168770074189126</v>
+        <v>24.037487013344968</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Pc, Winter, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>25.759710265136178</v>
+        <v>26.084243631246803</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Pc, Winter, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>27.999910949747019</v>
+        <v>28.285304613412141</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Pc, Winter, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>28.853590292329578</v>
+        <v>29.269653483429948</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Pc, Winter, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>28.78004769721522</v>
+        <v>29.025078542733421</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Pc, Winter, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>28.099069641582162</v>
+        <v>28.405256272171457</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Pc, Winter, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>27.092392034379049</v>
+        <v>27.580211346629504</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Pc, Winter, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>25.793479332546312</v>
+        <v>26.692265520474542</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Pc, Winter, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>24.030951684162691</v>
+        <v>24.989874394077503</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Pc, Winter, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>24.773835466464433</v>
+        <v>25.716857672260762</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Pc, Winter, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>27.523054773965146</v>
+        <v>28.052052314830139</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Pc, Winter, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>32.935454941329112</v>
+        <v>34.013019874281852</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Pc, Winter, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>31.343433939273044</v>
+        <v>31.975784756908194</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Pc, Winter, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>28.94302163392797</v>
+        <v>29.387624191394849</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Pc, Winter, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>28.074302946684643</v>
+        <v>28.74946281386956</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Pc, Winter, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>26.169295641626903</v>
+        <v>26.586581948428694</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Pc, Winter, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>24.049781071242119</v>
+        <v>25.954376070973005</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Pc, Winter, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>21.313108077861258</v>
+        <v>23.609100102047165</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -18686,99 +18981,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Winter, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>10.443361026739705</v>
+        <v>12.113729369648286</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Winter, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>9.8293999189478178</v>
+        <v>11.555487977143398</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Winter, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>9.5035186983153466</v>
+        <v>11.049129239678889</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Winter, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>9.6949273017774615</v>
+        <v>11.159948108591756</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Winter, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>9.7679136534695203</v>
+        <v>10.968197861798265</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Winter, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>11.145106525011141</v>
+        <v>12.163826002551026</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Winter, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>17.973246233229844</v>
+        <v>19.219057526000405</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Winter, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>20.991451402777692</v>
+        <v>21.207806980184774</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Winter, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>21.928832144162207</v>
+        <v>22.119094586605623</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Winter, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>21.241878925698877</v>
+        <v>21.519254386432454</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Winter, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>20.454346629271328</v>
+        <v>20.617700526283461</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Winter, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>21.761165451831062</v>
+        <v>21.965289872223927</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Winter, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>20.182563935159891</v>
+        <v>20.507776809993526</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Winter, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>19.236233810637657</v>
+        <v>19.835424602589811</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Winter, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>16.645096624937331</v>
+        <v>17.284378431547204</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Winter, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>16.57582609668794</v>
+        <v>17.204507567218826</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Winter, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>17.25224528123438</v>
+        <v>17.604910308477713</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Winter, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>18.654874913574098</v>
+        <v>19.373251535542593</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Winter, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>17.031960759770818</v>
+        <v>17.453527971527585</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Winter, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>17.689982877474332</v>
+        <v>17.986384582452253</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Winter, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>17.186620128920836</v>
+        <v>17.636726707044115</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Winter, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>16.153032230470902</v>
+        <v>16.431223101672096</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Winter, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>13.486678201823764</v>
+        <v>14.756408201644353</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Winter, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>11.922004586223244</v>
+        <v>13.452665935680516</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -19191,99 +19486,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Pc, Winter, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>34.098278254005876</v>
+        <v>37.439014939823032</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Pc, Winter, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>33.165579859757926</v>
+        <v>36.617755976149084</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Pc, Winter, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>31.339644828027836</v>
+        <v>34.430865910754918</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Pc, Winter, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>31.944884064797549</v>
+        <v>34.874925678426138</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Pc, Winter, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>31.643986898368873</v>
+        <v>34.044555315026358</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Pc, Winter, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>32.292750745165726</v>
+        <v>34.330189700245498</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Pc, Winter, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>31.346492413390692</v>
+        <v>33.838114998931815</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Pc, Winter, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>42.156493659532472</v>
+        <v>42.589204814346637</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Pc, Winter, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>42.574062533307988</v>
+        <v>42.954587418194819</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Pc, Winter, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>42.596777118949397</v>
+        <v>43.151528040416551</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Pc, Winter, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>41.204667260133107</v>
+        <v>41.531375054157373</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Pc, Winter, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>42.075468546674003</v>
+        <v>42.483717387459734</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Pc, Winter, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>41.638668896782121</v>
+        <v>42.289094646449392</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Pc, Winter, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>40.525447393728037</v>
+        <v>41.723828977632344</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Pc, Winter, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>36.345906322533075</v>
+        <v>37.624469935752821</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Pc, Winter, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>39.481032247217613</v>
+        <v>40.738395188279384</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Pc, Winter, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>42.880491667591279</v>
+        <v>43.585821722077945</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Pc, Winter, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>42.27587916639186</v>
+        <v>43.712632410328851</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Pc, Winter, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>39.671243824549599</v>
+        <v>40.514378248063132</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Pc, Winter, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>37.817935979434488</v>
+        <v>38.410739389390329</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Pc, Winter, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>36.456919980823137</v>
+        <v>37.357133137069695</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Pc, Winter, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>35.171723815112628</v>
+        <v>35.728105557515015</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Pc, Winter, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>32.860152463817478</v>
+        <v>35.399612463458659</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Pc, Winter, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>31.872379124513913</v>
+        <v>34.933701823428457</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -19292,99 +19587,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Pc, Winter, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>18.544448989644827</v>
+        <v>21.0500015040077</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Pc, Winter, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>17.669651317748674</v>
+        <v>20.258783405042045</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Pc, Winter, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>16.908600568967035</v>
+        <v>19.227016381012348</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Pc, Winter, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>17.101089954337933</v>
+        <v>19.298621164559375</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Pc, Winter, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>17.245507646287347</v>
+        <v>19.045933958780463</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Pc, Winter, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>18.570329686144536</v>
+        <v>20.098408902454363</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Pc, Winter, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>21.727839206038677</v>
+        <v>23.596556145194519</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Pc, Winter, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>25.759710265136178</v>
+        <v>26.084243631246803</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Pc, Winter, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>27.999910949747019</v>
+        <v>28.285304613412141</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Pc, Winter, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>29.141854061919542</v>
+        <v>29.557917253019912</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Pc, Winter, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>28.204767276604251</v>
+        <v>28.449798122122452</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Pc, Winter, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>28.660650501080472</v>
+        <v>28.966837131669767</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Pc, Winter, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>27.633601741733298</v>
+        <v>28.121421053983752</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Pc, Winter, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>26.3081731858639</v>
+        <v>27.206959373792131</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Pc, Winter, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>24.510316317845941</v>
+        <v>25.469239027760754</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Pc, Winter, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>25.020957021129078</v>
+        <v>25.963979226925407</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Pc, Winter, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>27.523054773965146</v>
+        <v>28.052052314830139</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Pc, Winter, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>32.278155442502531</v>
+        <v>33.35572037545527</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Pc, Winter, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>31.656454678665778</v>
+        <v>32.288805496300924</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Pc, Winter, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>29.232161050267241</v>
+        <v>29.67676360773412</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Pc, Winter, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>28.634905805618338</v>
+        <v>29.310065672803255</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Pc, Winter, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>26.169295641626903</v>
+        <v>26.586581948428694</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Pc, Winter, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>23.571276916483946</v>
+        <v>25.475871916214828</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Pc, Winter, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>21.52473742530654</v>
+        <v>23.820729449492447</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -19393,99 +19688,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Winter, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>10.650043180607833</v>
+        <v>12.320411523516414</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Winter, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>10.023729961771219</v>
+        <v>11.749818019966799</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Winter, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>9.409494444665528</v>
+        <v>10.95510498602907</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Winter, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>9.8869094033685681</v>
+        <v>11.351930210182863</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Winter, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>9.5741255137334651</v>
+        <v>10.774409722062209</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Winter, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>10.923537016733139</v>
+        <v>11.942256494273025</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Winter, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>18.152163851117699</v>
+        <v>19.39797514388826</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Winter, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>20.991451402777688</v>
+        <v>21.20780698018477</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Winter, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>21.49050439016785</v>
+        <v>21.680766832611265</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Winter, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>21.02964155866411</v>
+        <v>21.307017019397687</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Winter, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>20.454346629271328</v>
+        <v>20.617700526283461</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Winter, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>21.326209165016657</v>
+        <v>21.530333585409522</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Winter, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>19.779338078678915</v>
+        <v>20.10455095351255</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Winter, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>19.236233810637657</v>
+        <v>19.835424602589811</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Winter, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>16.645096624937331</v>
+        <v>17.284378431547204</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Winter, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>16.741173157654821</v>
+        <v>17.369854628185706</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Winter, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>16.907661708943028</v>
+        <v>17.260326736186361</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Winter, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>18.840953796043173</v>
+        <v>19.559330418011669</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Winter, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>16.69187301124207</v>
+        <v>17.113440222998836</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Winter, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>17.689982877474332</v>
+        <v>17.986384582452253</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Winter, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>17.015048327631629</v>
+        <v>17.465154905754908</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Winter, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>15.830335496972596</v>
+        <v>16.108526368173788</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Winter, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>13.218605615565066</v>
+        <v>14.488335615385655</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Winter, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>12.158442366836596</v>
+        <v>13.689103716293868</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -19896,99 +20191,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Pc, Winter, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>33.420682822259089</v>
+        <v>36.761419508076244</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Pc, Winter, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>32.513306903239062</v>
+        <v>35.96548301963022</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Pc, Winter, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>32.283204166250904</v>
+        <v>35.374425248977985</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Pc, Winter, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>33.240934661546653</v>
+        <v>36.170976275175249</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Pc, Winter, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>31.014247427068163</v>
+        <v>33.414815843725648</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Pc, Winter, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>31.031594332501271</v>
+        <v>33.069033287581043</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Pc, Winter, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>31.982890852666237</v>
+        <v>34.47451343820736</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Pc, Winter, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>41.330450690173443</v>
+        <v>41.763161844987607</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Pc, Winter, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>42.995341480282448</v>
+        <v>43.37586636516928</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Pc, Winter, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>42.17951738684642</v>
+        <v>42.734268308313574</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Pc, Winter, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>42.452645998655655</v>
+        <v>42.77935379267992</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Pc, Winter, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>42.924938573430595</v>
+        <v>43.333187414216326</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Pc, Winter, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>41.218506001079504</v>
+        <v>41.868931750746775</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Pc, Winter, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>42.176348012973172</v>
+        <v>43.374729596877479</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Pc, Winter, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>36.704938794373348</v>
+        <v>37.983502407593093</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Pc, Winter, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>39.481032247217613</v>
+        <v>40.738395188279384</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Pc, Winter, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>42.040602288488174</v>
+        <v>42.745932342974839</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Pc, Winter, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>41.448782973586795</v>
+        <v>42.885536217523786</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Pc, Winter, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>38.88676665310637</v>
+        <v>39.729901076619903</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Pc, Winter, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>36.695782633510696</v>
+        <v>37.288586043466537</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Pc, Winter, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>36.828328552056028</v>
+        <v>37.728541708302586</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Pc, Winter, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>36.236430866749039</v>
+        <v>36.792812609151426</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Pc, Winter, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>31.578032672208074</v>
+        <v>34.117492671849256</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Pc, Winter, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>31.245207876723757</v>
+        <v>34.306530575638305</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -19997,99 +20292,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Pc, Winter, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>18.360643299748379</v>
+        <v>20.866195814111251</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Pc, Winter, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>18.383949466772425</v>
+        <v>20.973081554065796</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Pc, Winter, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>16.908600568967035</v>
+        <v>19.227016381012348</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Pc, Winter, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>17.101089954337933</v>
+        <v>19.298621164559375</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Pc, Winter, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>17.074230169824475</v>
+        <v>18.87465648231759</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Pc, Winter, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>18.570329686144536</v>
+        <v>20.098408902454363</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Pc, Winter, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>22.609700942339575</v>
+        <v>24.478417881495417</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Pc, Winter, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>25.759710265136178</v>
+        <v>26.084243631246803</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Pc, Winter, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>27.440286064085413</v>
+        <v>27.725679727750535</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Pc, Winter, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>29.430117831509506</v>
+        <v>29.846181022609876</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Pc, Winter, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>28.492407486909734</v>
+        <v>28.737438332427935</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Pc, Winter, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>28.660650501080472</v>
+        <v>28.966837131669767</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Pc, Winter, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>26.551182327024801</v>
+        <v>27.039001639275256</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Pc, Winter, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>25.793479332546312</v>
+        <v>26.692265520474542</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Pc, Winter, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>23.551587050479437</v>
+        <v>24.51050976039425</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Pc, Winter, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>24.279592357135144</v>
+        <v>25.222614562931472</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Pc, Winter, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>26.973285678485844</v>
+        <v>27.502283219350836</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Pc, Winter, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>33.264104690742407</v>
+        <v>34.341669623695147</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Pc, Winter, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>31.343433939273044</v>
+        <v>31.975784756908194</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Pc, Winter, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>29.521300466606526</v>
+        <v>29.965903024073405</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Pc, Winter, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>27.794001517217797</v>
+        <v>28.469161384402714</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Pc, Winter, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>25.907875618543969</v>
+        <v>26.32516192534576</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Pc, Winter, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>24.289033148621211</v>
+        <v>26.193628148352097</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Pc, Winter, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>21.52473742530654</v>
+        <v>23.820729449492447</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -20098,99 +20393,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Winter, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>10.443361026739705</v>
+        <v>12.113729369648286</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Winter, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>9.6350698761244171</v>
+        <v>11.361157934319998</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Winter, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>9.409494444665528</v>
+        <v>10.95510498602907</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Winter, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>9.7909183525730157</v>
+        <v>11.25593915938731</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Winter, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>9.8648077233375506</v>
+        <v>11.065091931666295</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Winter, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>10.923537016733139</v>
+        <v>11.942256494273025</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Winter, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>17.615410997454138</v>
+        <v>18.861222290224696</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Winter, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>20.991451402777688</v>
+        <v>21.20780698018477</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Winter, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>21.709668267165029</v>
+        <v>21.899930709608444</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Winter, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>20.817404191629347</v>
+        <v>21.094779652362924</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Winter, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>20.454346629271328</v>
+        <v>20.617700526283461</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Winter, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>21.326209165016657</v>
+        <v>21.530333585409522</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Winter, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>19.779338078678915</v>
+        <v>20.10455095351255</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Winter, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>19.428204237632922</v>
+        <v>20.027395029585076</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Winter, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>16.811129457853372</v>
+        <v>17.450411264463245</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Winter, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>16.906520218621704</v>
+        <v>17.53520168915259</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Winter, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>16.907661708943028</v>
+        <v>17.260326736186361</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Winter, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>18.28271714863595</v>
+        <v>19.001093770604445</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Winter, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>17.372048508299567</v>
+        <v>17.793615720056334</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Winter, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>18.043394801690486</v>
+        <v>18.339796506668407</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Winter, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>17.186620128920836</v>
+        <v>17.636726707044115</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Winter, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>16.314380597220051</v>
+        <v>16.592571468421244</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Winter, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>13.218605615565066</v>
+        <v>14.488335615385655</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Winter, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>11.922004586223244</v>
+        <v>13.452665935680516</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">

--- a/data/IEEE_9/ieee4/ieee4_2030.xlsx
+++ b/data/IEEE_9/ieee4/ieee4_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\ieee4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005AFE02-B21C-4CC9-B070-B8BE02B34389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D3E1B1-842A-410B-8B05-ADFF038EE0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="7455" windowWidth="21600" windowHeight="12660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="7455" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -9189,7 +9189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303073B7-556E-4714-A27A-3E87EB1A31BB}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -18292,7 +18292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8887EC56-5E5B-40B7-BB11-11EDFDA79162}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
